--- a/data/Data Collection.xlsx
+++ b/data/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pconn\OneDrive\Desktop\Data Mining\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC9352C-5B07-4EBD-90D2-79577F6B2EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC62B5DB-6473-486F-A05F-BB3AA5397EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="productCollectionList" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -525,6 +525,78 @@
   </si>
   <si>
     <t>https://www.target.com/p/lg-65-34-class-4k-uhd-2160p-smart-oled-tv-oled65c3/-/A-88196023</t>
+  </si>
+  <si>
+    <t>Hogwarts Legacy (XBOX)</t>
+  </si>
+  <si>
+    <t>Jedi Survivor PS5</t>
+  </si>
+  <si>
+    <t>MarioKart8 Deluxe - Switch</t>
+  </si>
+  <si>
+    <t>Ninja Woodfire Pizza Oven</t>
+  </si>
+  <si>
+    <t>Igloo 24qt Cooler</t>
+  </si>
+  <si>
+    <t>Dyson Ball Animal 3 Extra Upright Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/hogwarts-legacy-xbox-series-x/-/A-86267032</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/star-wars-jedi-survivor-playstation-5/-/A-88183520</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/mario-kart-8-deluxe-nintendo-switch/-/A-52161278</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/ninja-woodfire-pizza-oven-8-in-1-outdoor-oven-5-pizza-settings-smoker-ninja-woodfire-technology-electric-oo101/-/A-89401843</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/igloo-imx-24qt-cooler-meteorite/-/A-87378961</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/dyson-ball-animal-3-extra-upright-vacuum/-/A-85269264</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hogwarts-Legacy-Xbox-English-Version-Region/dp/B0B9YSJC5S/ref=sr_1_2?crid=1K69XYMHWNR56&amp;dib=eyJ2IjoiMSJ9.Kg0XV9Kot63z1u2KagkEvpCVUtkbGXvapqAJX7afkiu3BdvCRxuMMxHq3-R-Vq88oqItB-jjTuSzsA4OUT3gHqxnGxm_W3ax9Bt1-kNDhIIrfk2DMuaREs1iW3ZpC41UpXGGXpnKaQWx_QR6PweYu_E0fgQaz6JOeKQrHgmpoGnZNkaPqUf-EzAWuLvi4LuOAF_AT5tsuZUIeboaBcrdGFpzu4TWaNBwkw4WmSvH7Vo.uFmuTgI86APUwJ8qSsprJqvZ4Dnr_EwLXhTo2K61-P0&amp;dib_tag=se&amp;keywords=hogwarts+legacy+xbox&amp;qid=1710278855&amp;sprefix=hogwarts+legacy+xbox%2Caps%2C129&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Star-Wars-Jedi-Survivor-Playstation-5/dp/B0BPD4JMWT/ref=sr_1_1?crid=1YEWINBQP33M2&amp;dib=eyJ2IjoiMSJ9.xmgn1bEBQh8fF6vN-_ijDTx3NnKfAvuz4KzU8chGgsL67cKZ-GVbOSb0nGWeW8mxQpNntErtqMVDRP2_Qvv6NVonWyAdXrQOG1vF3pQuiK5vfmslLzeTXkEtyMSwY0hE5dvkCY4Udzheb9VLdQgjV4RNjelCbXWMWS3HDuqkxw8RhbOBcyBB1KuJpYwpU0LO3JbTFOrTQoCecarfSPAyc01kEOKHqvHzXAHZPHjTRpo.vqAgJHJ_EuyQ0aHKHSEiLA9mvUUFdQtDGBvQua34gew&amp;dib_tag=se&amp;keywords=jedi+survivor+ps5&amp;qid=1710278950&amp;sprefix=jedi+survivor+ps%2Caps%2C174&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Mario-Kart-8-Deluxe-Nintendo-Switch/dp/B01N1037CV/ref=sr_1_1?crid=1PYFQU1N4B68F&amp;dib=eyJ2IjoiMSJ9.8TZU_Of0o7Vk3YWNjDE9oY9I_W3GMrGxHT454fa05jnyQhIJ1QoKGzaub95DXly85ZIxHf3U7vByBD9UHUHObxJwp-_uYmPTubto19uqmmQglLhYd3W-DOvMZz4lfv1l9ezRsNuuryHtJljvddmeIZdaJWrxpna-VU5FHp3braflTwk_ypjvU7neyKr_vIay2KHtiMOKVjqNxAnzmGjWABX-bq-mvp-ghJ0Hq7eY9h4.vohI6h3tcX_pnwUMLahacLD3yr74bAsNKv9eeH5rAp0&amp;dib_tag=se&amp;keywords=mario+kart+8+deluxe&amp;qid=1710279189&amp;sprefix=mario+kart+%2Caps%2C167&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ninja-Woodfire-Technology-terracotta-OO101/dp/B0C6BQVDX3/ref=sr_1_3?crid=3DXGBNWLVTJHJ&amp;dib=eyJ2IjoiMSJ9.0WxsIb1exp9JW6Y3VWlsjnd4AbzdLgvTZ3dzGlCYh7z1OEIvxums8Mey72f26ju-BWrkrofq9sMNvCk49njaQbu-SN8ItGFSBFcq-t91Hsb6AE3rPWtoewiMwvt1h2JtkHhsZTKkYeLo0Y9nnD_eJ4STJOza34YIVUe9YB7S8nTqDnhXuTlMQ4TE6pHn3CnUHoVNJGIlgiU2ncUCADPEKpW5C2f1-rC8jpiw7k3qXsE.uqci_nwiB33tgkfGHQRjqPWrYYjoEoVkB-fSO930oYQ&amp;dib_tag=se&amp;keywords=Ninja%2BWoodfire%2BPizza%2BOven%2C%2B8-in-1%2BOutdoor%2BOven&amp;qid=1710280162&amp;sprefix=ninja%2Bwoodfire%2Bpizza%2Boven%2C%2B8-in-1%2Boutdoor%2Boven%2Caps%2C183&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08YS7QZLL/ref=twister_B09V6MDSN6?_encoding=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Dyson-Animal-Extra-Upright-Vacuum/dp/B0B57QV5TT/ref=sr_1_3?crid=2IQWXZR08I144&amp;dib=eyJ2IjoiMSJ9.t3iEOoxEJUwLPVoSUcRptqioH5l2EvX8s4APBjqpAjI4e18xB7pmNY8TyLEanhvfvEQqqscP3Xi13oKWZQuQ1MaGTAAh82rbXWBT5nZjBYQqPFp7PUAvYcMk9RslrAyAZS0Nwv3r6RQ8M2iBSK7DQAZmAK0ycSydB1nB1cVDRVBJ0bgIwOtJPiE6ohrQceFbK44RLbkqiNcgSv_YM7QC30n8grFBmSgixz1fAwZtEd8.ZIHRSLxkS_22b7rx1F4ymcSJXsCEuBy_aVi0A1DzCpU&amp;dib_tag=se&amp;keywords=Dyson%2B-%2BBall%2BAnimal%2B3%2BExtra%2BUpright&amp;qid=1710280601&amp;sprefix=dyson%2B-%2Bball%2Banimal%2B3%2Bextra%2Bupright%2Caps%2C176&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/hogwarts-legacy-standard-edition-xbox-series-x/6502627.p?skuId=6502627</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/star-wars-jedi-survivor-standard-edition-playstation-5/6528657.p?skuId=6528657</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/mario-kart-8-deluxe-nintendo-switch/5723304.p?skuId=5723304</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/igloo-imx-24-quart-cooler-gray/6523836.p?skuId=6523836</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/dyson-ball-animal-3-extra-upright-vacuum-with-5-accessories-copper-silver/6504485.p?skuId=6504485</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/ninja-woodfire-pizza-oven-8-in-1-outdoor-oven-5-pizza-settings-700f-smoker-woodfire-technology-electric-terracotta-red/6548901.p?skuId=6548901</t>
   </si>
 </sst>
 </file>
@@ -623,10 +695,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -948,9 +1016,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBB0BCB-A94A-4B82-A2E9-B3B98544ABD5}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B15"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,7 +1210,9 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>28</v>
@@ -1152,7 +1222,9 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>29</v>
@@ -1162,7 +1234,9 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
@@ -1172,7 +1246,9 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>31</v>
@@ -1182,7 +1258,9 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
@@ -1190,7 +1268,9 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
@@ -1371,11 +1451,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8FFCC8-FB4D-413C-81EB-800110419A65}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D21:D22"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1588,30 +1668,48 @@
       <c r="C16" t="s">
         <v>64</v>
       </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>64</v>
       </c>
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>64</v>
       </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>64</v>
       </c>
+      <c r="D19" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>64</v>
       </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1902,6 +2000,9 @@
       <c r="C44" t="s">
         <v>77</v>
       </c>
+      <c r="D44" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
@@ -1913,6 +2014,9 @@
       <c r="C45" t="s">
         <v>77</v>
       </c>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
@@ -1924,6 +2028,9 @@
       <c r="C46" t="s">
         <v>77</v>
       </c>
+      <c r="D46" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -1935,6 +2042,9 @@
       <c r="C47" t="s">
         <v>77</v>
       </c>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
@@ -1946,6 +2056,9 @@
       <c r="C48" t="s">
         <v>77</v>
       </c>
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
@@ -1957,6 +2070,9 @@
       <c r="C49" t="s">
         <v>77</v>
       </c>
+      <c r="D49" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
@@ -2267,6 +2383,54 @@
       </c>
       <c r="J74" s="1">
         <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>130</v>
+      </c>
+      <c r="D79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2308,6 +2472,7 @@
     <hyperlink ref="D4" r:id="rId35" xr:uid="{D38CDF7D-9FE1-49F1-A1F8-28032F04F6AB}"/>
     <hyperlink ref="D5" r:id="rId36" xr:uid="{530D22AE-701B-4A32-9512-660098BBDF57}"/>
     <hyperlink ref="D10" r:id="rId37" xr:uid="{A8923910-483F-46D2-8ED9-C10E6AF959E8}"/>
+    <hyperlink ref="D78" r:id="rId38" xr:uid="{DB2F31ED-A20B-4C8C-8687-199BB200EF6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Data Collection.xlsx
+++ b/data/Data Collection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pconn\OneDrive\Desktop\Data Mining\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CU Boulder - Data Science\Spring 2024\Data Mining\Data_Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC62B5DB-6473-486F-A05F-BB3AA5397EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8632A504-ECB9-41F3-83C2-D8FB0D9BADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="productCollectionList" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -435,168 +435,310 @@
     <t>bestbuy</t>
   </si>
   <si>
-    <t>https://www.bestbuy.com/site/samsung-galaxy-s23-ultra-256gb-unlocked-phantom-black/6529723.p?skuId=6529723</t>
-  </si>
-  <si>
-    <t>Samsung - Galaxy S23 Ultra 256GB (Unlocked) - Phantom Black</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.com/site/apple-iphone-13-5g-128gb-unlocked-midnight/6417788.p?skuId=6417788</t>
-  </si>
-  <si>
-    <t>Apple - iPhone 13 5G 128GB (Unlocked) - Midnight</t>
-  </si>
-  <si>
     <t>https://www.bestbuy.com/site/jbl-flip-5-portable-bluetooth-speaker-black/6356535.p?skuId=6356535</t>
   </si>
   <si>
     <t>JBL - Flip 5 Portable Bluetooth Speaker - Black</t>
   </si>
   <si>
-    <t>https://www.bestbuy.com/site/mcafee-total-protection-5-device-antivirus-internet-security-software-1-year-subscription-android-apple-ios-chrome-mac-os-windows-digital/6517326.p?skuId=6517326</t>
-  </si>
-  <si>
-    <t>McAfee - Total Protection (5 Device) Antivirus &amp; Internet Security Software (1-Year Subscription) - Android, Apple iOS, Chrome, Mac OS, Windows [Digital]</t>
-  </si>
-  <si>
-    <t>Real-Time Protection
+    <t>ReviewID</t>
+  </si>
+  <si>
+    <t>review_header</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_star_rating</t>
+  </si>
+  <si>
+    <t>review_helpful_votes</t>
+  </si>
+  <si>
+    <t>verified_purchase</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/hp-deskjet-2755e-wireless-all-in-one-color-printer-scanner-copier-with-instant-ink-and-hp-26k67/-/A-82254388</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/jbl-charge-5-portable-bluetooth-waterproof-speaker-red-target-certified-refurbished/-/A-88249290</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/lg-65-34-class-4k-uhd-2160p-smart-oled-tv-oled65c3/-/A-88196023</t>
+  </si>
+  <si>
+    <t>Hogwarts Legacy (XBOX)</t>
+  </si>
+  <si>
+    <t>Jedi Survivor PS5</t>
+  </si>
+  <si>
+    <t>MarioKart8 Deluxe - Switch</t>
+  </si>
+  <si>
+    <t>Ninja Woodfire Pizza Oven</t>
+  </si>
+  <si>
+    <t>Igloo 24qt Cooler</t>
+  </si>
+  <si>
+    <t>Dyson Ball Animal 3 Extra Upright Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/hogwarts-legacy-xbox-series-x/-/A-86267032</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/star-wars-jedi-survivor-playstation-5/-/A-88183520</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/mario-kart-8-deluxe-nintendo-switch/-/A-52161278</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/ninja-woodfire-pizza-oven-8-in-1-outdoor-oven-5-pizza-settings-smoker-ninja-woodfire-technology-electric-oo101/-/A-89401843</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/igloo-imx-24qt-cooler-meteorite/-/A-87378961</t>
+  </si>
+  <si>
+    <t>https://www.target.com/p/dyson-ball-animal-3-extra-upright-vacuum/-/A-85269264</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hogwarts-Legacy-Xbox-English-Version-Region/dp/B0B9YSJC5S/ref=sr_1_2?crid=1K69XYMHWNR56&amp;dib=eyJ2IjoiMSJ9.Kg0XV9Kot63z1u2KagkEvpCVUtkbGXvapqAJX7afkiu3BdvCRxuMMxHq3-R-Vq88oqItB-jjTuSzsA4OUT3gHqxnGxm_W3ax9Bt1-kNDhIIrfk2DMuaREs1iW3ZpC41UpXGGXpnKaQWx_QR6PweYu_E0fgQaz6JOeKQrHgmpoGnZNkaPqUf-EzAWuLvi4LuOAF_AT5tsuZUIeboaBcrdGFpzu4TWaNBwkw4WmSvH7Vo.uFmuTgI86APUwJ8qSsprJqvZ4Dnr_EwLXhTo2K61-P0&amp;dib_tag=se&amp;keywords=hogwarts+legacy+xbox&amp;qid=1710278855&amp;sprefix=hogwarts+legacy+xbox%2Caps%2C129&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Star-Wars-Jedi-Survivor-Playstation-5/dp/B0BPD4JMWT/ref=sr_1_1?crid=1YEWINBQP33M2&amp;dib=eyJ2IjoiMSJ9.xmgn1bEBQh8fF6vN-_ijDTx3NnKfAvuz4KzU8chGgsL67cKZ-GVbOSb0nGWeW8mxQpNntErtqMVDRP2_Qvv6NVonWyAdXrQOG1vF3pQuiK5vfmslLzeTXkEtyMSwY0hE5dvkCY4Udzheb9VLdQgjV4RNjelCbXWMWS3HDuqkxw8RhbOBcyBB1KuJpYwpU0LO3JbTFOrTQoCecarfSPAyc01kEOKHqvHzXAHZPHjTRpo.vqAgJHJ_EuyQ0aHKHSEiLA9mvUUFdQtDGBvQua34gew&amp;dib_tag=se&amp;keywords=jedi+survivor+ps5&amp;qid=1710278950&amp;sprefix=jedi+survivor+ps%2Caps%2C174&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Mario-Kart-8-Deluxe-Nintendo-Switch/dp/B01N1037CV/ref=sr_1_1?crid=1PYFQU1N4B68F&amp;dib=eyJ2IjoiMSJ9.8TZU_Of0o7Vk3YWNjDE9oY9I_W3GMrGxHT454fa05jnyQhIJ1QoKGzaub95DXly85ZIxHf3U7vByBD9UHUHObxJwp-_uYmPTubto19uqmmQglLhYd3W-DOvMZz4lfv1l9ezRsNuuryHtJljvddmeIZdaJWrxpna-VU5FHp3braflTwk_ypjvU7neyKr_vIay2KHtiMOKVjqNxAnzmGjWABX-bq-mvp-ghJ0Hq7eY9h4.vohI6h3tcX_pnwUMLahacLD3yr74bAsNKv9eeH5rAp0&amp;dib_tag=se&amp;keywords=mario+kart+8+deluxe&amp;qid=1710279189&amp;sprefix=mario+kart+%2Caps%2C167&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ninja-Woodfire-Technology-terracotta-OO101/dp/B0C6BQVDX3/ref=sr_1_3?crid=3DXGBNWLVTJHJ&amp;dib=eyJ2IjoiMSJ9.0WxsIb1exp9JW6Y3VWlsjnd4AbzdLgvTZ3dzGlCYh7z1OEIvxums8Mey72f26ju-BWrkrofq9sMNvCk49njaQbu-SN8ItGFSBFcq-t91Hsb6AE3rPWtoewiMwvt1h2JtkHhsZTKkYeLo0Y9nnD_eJ4STJOza34YIVUe9YB7S8nTqDnhXuTlMQ4TE6pHn3CnUHoVNJGIlgiU2ncUCADPEKpW5C2f1-rC8jpiw7k3qXsE.uqci_nwiB33tgkfGHQRjqPWrYYjoEoVkB-fSO930oYQ&amp;dib_tag=se&amp;keywords=Ninja%2BWoodfire%2BPizza%2BOven%2C%2B8-in-1%2BOutdoor%2BOven&amp;qid=1710280162&amp;sprefix=ninja%2Bwoodfire%2Bpizza%2Boven%2C%2B8-in-1%2Boutdoor%2Boven%2Caps%2C183&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B08YS7QZLL/ref=twister_B09V6MDSN6?_encoding=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Dyson-Animal-Extra-Upright-Vacuum/dp/B0B57QV5TT/ref=sr_1_3?crid=2IQWXZR08I144&amp;dib=eyJ2IjoiMSJ9.t3iEOoxEJUwLPVoSUcRptqioH5l2EvX8s4APBjqpAjI4e18xB7pmNY8TyLEanhvfvEQqqscP3Xi13oKWZQuQ1MaGTAAh82rbXWBT5nZjBYQqPFp7PUAvYcMk9RslrAyAZS0Nwv3r6RQ8M2iBSK7DQAZmAK0ycSydB1nB1cVDRVBJ0bgIwOtJPiE6ohrQceFbK44RLbkqiNcgSv_YM7QC30n8grFBmSgixz1fAwZtEd8.ZIHRSLxkS_22b7rx1F4ymcSJXsCEuBy_aVi0A1DzCpU&amp;dib_tag=se&amp;keywords=Dyson%2B-%2BBall%2BAnimal%2B3%2BExtra%2BUpright&amp;qid=1710280601&amp;sprefix=dyson%2B-%2Bball%2Banimal%2B3%2Bextra%2Bupright%2Caps%2C176&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/hogwarts-legacy-standard-edition-xbox-series-x/6502627.p?skuId=6502627</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/star-wars-jedi-survivor-standard-edition-playstation-5/6528657.p?skuId=6528657</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/mario-kart-8-deluxe-nintendo-switch/5723304.p?skuId=5723304</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/igloo-imx-24-quart-cooler-gray/6523836.p?skuId=6523836</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/dyson-ball-animal-3-extra-upright-vacuum-with-5-accessories-copper-silver/6504485.p?skuId=6504485</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/ninja-woodfire-pizza-oven-8-in-1-outdoor-oven-5-pizza-settings-700f-smoker-woodfire-technology-electric-terracotta-red/6548901.p?skuId=6548901</t>
+  </si>
+  <si>
+    <t>Hogwarts Legacy Standard Edition - Xbox Series X</t>
+  </si>
+  <si>
+    <t>Edition Standard Edition
+ESRB Rating T (Teen 13+)
+Compatible Platform(s) Xbox Series X
+Software Format Physical</t>
+  </si>
+  <si>
+    <t>Star Wars Jedi: Survivor Standard Edition - PlayStation 5</t>
+  </si>
+  <si>
+    <t>Edition Standard Edition
+ESRB Rating T (Teen 13+)
+ESRB Descriptors Mild language, Violence
+Compatible Platform(s) PlayStation 5
+Software Format Physical</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 Deluxe - Nintendo Switch</t>
+  </si>
+  <si>
+    <t>ESRB Rating E (Everyone)
+ESRB Descriptors Comic mischief
+Compatible Platform(s) Nintendo Switch
+Software Format Physical</t>
+  </si>
+  <si>
+    <t>Ninja - Woodfire Pizza Oven, 8-in-1 Outdoor Oven, 5 Pizza Settings, 700°F, Smoker, Woodfire Technology, Electric - Terracotta Red</t>
+  </si>
+  <si>
+    <t>Product Name Woodfire Pizza Oven, 8-in-1 Outdoor Oven, 5 Pizza Settings, 700°F, Smoker, Woodfire Technology, Electric
+Brand Ninja
+Model Number OO101
+Color Terracotta Red
+Color Category Red</t>
+  </si>
+  <si>
+    <t>Igloo - IMX 24 Quart Cooler - Gray</t>
+  </si>
+  <si>
+    <t>Hard/Soft Case Hardside
+Capacity 24 quarts
+Product Type Hardside Cooler
+BPA-Free Yes</t>
+  </si>
+  <si>
+    <t>Dyson - Ball Animal 3 Extra Upright Vacuum with 5 accessories - Copper/Silver</t>
+  </si>
+  <si>
+    <t>Pet
 Yes
-E-mail Security
+Cleaning Path Width
+11.02 inches
+Vacuum Type
+Upright vacuums
+Bin Capacity
+0.55 gallons
+Product Weight
+17.33 pounds
+Brush Roll Shut-Off
 Yes
-Parental Controls
-No
-Firewall Type
-Other
-Purchase rights
-Number of Devices
-5</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.com/site/norton-360-deluxe-5-device-antivirus-internet-security-software-vpn-dark-web-monitoring-1-year-subscription-android-mac-os-windows-apple-ios-digital/6346690.p?skuId=6346690</t>
-  </si>
-  <si>
-    <t>Norton - 360 Deluxe (5 Device) Antivirus Internet Security Software + VPN + Dark Web Monitoring (1 Year Subscription) - Android, Mac OS, Windows, Apple iOS [Digital]</t>
-  </si>
-  <si>
-    <t>Protection Type(s)
-Malware, Password, Phishing, Privacy, Ransomware
-Real-Time Protection
+Bagless
 Yes
-Parental Controls
-Yes
-Firewall Type
-2-way
-In-Software Purchases
-Subscriptions
-Cloud Based Software
-Yes
-Purchase rights
-Number of Devices
-5
-Number of Licenses
-1</t>
-  </si>
-  <si>
-    <t>ReviewID</t>
-  </si>
-  <si>
-    <t>review_header</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_star_rating</t>
-  </si>
-  <si>
-    <t>review_helpful_votes</t>
-  </si>
-  <si>
-    <t>verified_purchase</t>
-  </si>
-  <si>
-    <t>https://www.target.com/p/hp-deskjet-2755e-wireless-all-in-one-color-printer-scanner-copier-with-instant-ink-and-hp-26k67/-/A-82254388</t>
-  </si>
-  <si>
-    <t>https://www.target.com/p/jbl-charge-5-portable-bluetooth-waterproof-speaker-red-target-certified-refurbished/-/A-88249290</t>
-  </si>
-  <si>
-    <t>https://www.target.com/p/lg-65-34-class-4k-uhd-2160p-smart-oled-tv-oled65c3/-/A-88196023</t>
-  </si>
-  <si>
-    <t>Hogwarts Legacy (XBOX)</t>
-  </si>
-  <si>
-    <t>Jedi Survivor PS5</t>
-  </si>
-  <si>
-    <t>MarioKart8 Deluxe - Switch</t>
-  </si>
-  <si>
-    <t>Ninja Woodfire Pizza Oven</t>
-  </si>
-  <si>
-    <t>Igloo 24qt Cooler</t>
-  </si>
-  <si>
-    <t>Dyson Ball Animal 3 Extra Upright Vacuum Cleaner</t>
-  </si>
-  <si>
-    <t>https://www.target.com/p/hogwarts-legacy-xbox-series-x/-/A-86267032</t>
-  </si>
-  <si>
-    <t>https://www.target.com/p/star-wars-jedi-survivor-playstation-5/-/A-88183520</t>
-  </si>
-  <si>
-    <t>https://www.target.com/p/mario-kart-8-deluxe-nintendo-switch/-/A-52161278</t>
-  </si>
-  <si>
-    <t>https://www.target.com/p/ninja-woodfire-pizza-oven-8-in-1-outdoor-oven-5-pizza-settings-smoker-ninja-woodfire-technology-electric-oo101/-/A-89401843</t>
-  </si>
-  <si>
-    <t>https://www.target.com/p/igloo-imx-24qt-cooler-meteorite/-/A-87378961</t>
-  </si>
-  <si>
-    <t>https://www.target.com/p/dyson-ball-animal-3-extra-upright-vacuum/-/A-85269264</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hogwarts-Legacy-Xbox-English-Version-Region/dp/B0B9YSJC5S/ref=sr_1_2?crid=1K69XYMHWNR56&amp;dib=eyJ2IjoiMSJ9.Kg0XV9Kot63z1u2KagkEvpCVUtkbGXvapqAJX7afkiu3BdvCRxuMMxHq3-R-Vq88oqItB-jjTuSzsA4OUT3gHqxnGxm_W3ax9Bt1-kNDhIIrfk2DMuaREs1iW3ZpC41UpXGGXpnKaQWx_QR6PweYu_E0fgQaz6JOeKQrHgmpoGnZNkaPqUf-EzAWuLvi4LuOAF_AT5tsuZUIeboaBcrdGFpzu4TWaNBwkw4WmSvH7Vo.uFmuTgI86APUwJ8qSsprJqvZ4Dnr_EwLXhTo2K61-P0&amp;dib_tag=se&amp;keywords=hogwarts+legacy+xbox&amp;qid=1710278855&amp;sprefix=hogwarts+legacy+xbox%2Caps%2C129&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Star-Wars-Jedi-Survivor-Playstation-5/dp/B0BPD4JMWT/ref=sr_1_1?crid=1YEWINBQP33M2&amp;dib=eyJ2IjoiMSJ9.xmgn1bEBQh8fF6vN-_ijDTx3NnKfAvuz4KzU8chGgsL67cKZ-GVbOSb0nGWeW8mxQpNntErtqMVDRP2_Qvv6NVonWyAdXrQOG1vF3pQuiK5vfmslLzeTXkEtyMSwY0hE5dvkCY4Udzheb9VLdQgjV4RNjelCbXWMWS3HDuqkxw8RhbOBcyBB1KuJpYwpU0LO3JbTFOrTQoCecarfSPAyc01kEOKHqvHzXAHZPHjTRpo.vqAgJHJ_EuyQ0aHKHSEiLA9mvUUFdQtDGBvQua34gew&amp;dib_tag=se&amp;keywords=jedi+survivor+ps5&amp;qid=1710278950&amp;sprefix=jedi+survivor+ps%2Caps%2C174&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Mario-Kart-8-Deluxe-Nintendo-Switch/dp/B01N1037CV/ref=sr_1_1?crid=1PYFQU1N4B68F&amp;dib=eyJ2IjoiMSJ9.8TZU_Of0o7Vk3YWNjDE9oY9I_W3GMrGxHT454fa05jnyQhIJ1QoKGzaub95DXly85ZIxHf3U7vByBD9UHUHObxJwp-_uYmPTubto19uqmmQglLhYd3W-DOvMZz4lfv1l9ezRsNuuryHtJljvddmeIZdaJWrxpna-VU5FHp3braflTwk_ypjvU7neyKr_vIay2KHtiMOKVjqNxAnzmGjWABX-bq-mvp-ghJ0Hq7eY9h4.vohI6h3tcX_pnwUMLahacLD3yr74bAsNKv9eeH5rAp0&amp;dib_tag=se&amp;keywords=mario+kart+8+deluxe&amp;qid=1710279189&amp;sprefix=mario+kart+%2Caps%2C167&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Ninja-Woodfire-Technology-terracotta-OO101/dp/B0C6BQVDX3/ref=sr_1_3?crid=3DXGBNWLVTJHJ&amp;dib=eyJ2IjoiMSJ9.0WxsIb1exp9JW6Y3VWlsjnd4AbzdLgvTZ3dzGlCYh7z1OEIvxums8Mey72f26ju-BWrkrofq9sMNvCk49njaQbu-SN8ItGFSBFcq-t91Hsb6AE3rPWtoewiMwvt1h2JtkHhsZTKkYeLo0Y9nnD_eJ4STJOza34YIVUe9YB7S8nTqDnhXuTlMQ4TE6pHn3CnUHoVNJGIlgiU2ncUCADPEKpW5C2f1-rC8jpiw7k3qXsE.uqci_nwiB33tgkfGHQRjqPWrYYjoEoVkB-fSO930oYQ&amp;dib_tag=se&amp;keywords=Ninja%2BWoodfire%2BPizza%2BOven%2C%2B8-in-1%2BOutdoor%2BOven&amp;qid=1710280162&amp;sprefix=ninja%2Bwoodfire%2Bpizza%2Boven%2C%2B8-in-1%2Boutdoor%2Boven%2Caps%2C183&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/dp/B08YS7QZLL/ref=twister_B09V6MDSN6?_encoding=UTF8&amp;psc=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Dyson-Animal-Extra-Upright-Vacuum/dp/B0B57QV5TT/ref=sr_1_3?crid=2IQWXZR08I144&amp;dib=eyJ2IjoiMSJ9.t3iEOoxEJUwLPVoSUcRptqioH5l2EvX8s4APBjqpAjI4e18xB7pmNY8TyLEanhvfvEQqqscP3Xi13oKWZQuQ1MaGTAAh82rbXWBT5nZjBYQqPFp7PUAvYcMk9RslrAyAZS0Nwv3r6RQ8M2iBSK7DQAZmAK0ycSydB1nB1cVDRVBJ0bgIwOtJPiE6ohrQceFbK44RLbkqiNcgSv_YM7QC30n8grFBmSgixz1fAwZtEd8.ZIHRSLxkS_22b7rx1F4ymcSJXsCEuBy_aVi0A1DzCpU&amp;dib_tag=se&amp;keywords=Dyson%2B-%2BBall%2BAnimal%2B3%2BExtra%2BUpright&amp;qid=1710280601&amp;sprefix=dyson%2B-%2Bball%2Banimal%2B3%2Bextra%2Bupright%2Caps%2C176&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.com/site/hogwarts-legacy-standard-edition-xbox-series-x/6502627.p?skuId=6502627</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.com/site/star-wars-jedi-survivor-standard-edition-playstation-5/6528657.p?skuId=6528657</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.com/site/mario-kart-8-deluxe-nintendo-switch/5723304.p?skuId=5723304</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.com/site/igloo-imx-24-quart-cooler-gray/6523836.p?skuId=6523836</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.com/site/dyson-ball-animal-3-extra-upright-vacuum-with-5-accessories-copper-silver/6504485.p?skuId=6504485</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.com/site/ninja-woodfire-pizza-oven-8-in-1-outdoor-oven-5-pizza-settings-700f-smoker-woodfire-technology-electric-terracotta-red/6548901.p?skuId=6548901</t>
+Compatible Floor Type
+All floors
+Amperage
+11.67 amperes
+Corded/Cordless
+Corded
+Carpet Height Adjustments Yes
+Wattage 1400 watts
+Wet And Dry Usage No
+Cord Length 35 feet
+Filter Type Lifetime
+Hypoallergenic Yes
+Multi Surface Yes
+Washable Filter Yes
+Attachments Included Combination tool, Stair tool, Tangle-free turbine tool, groom tool, Tool holder</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/ge-1-4-cu-ft-mid-size-microwave-black/3180025.p?skuId=3180025</t>
+  </si>
+  <si>
+    <t>GE - 1.4 Cu. Ft. Mid-Size Microwave - Black</t>
+  </si>
+  <si>
+    <t>Product Height
+12 1/2 inches
+Product Width 21 7/8 inches
+Product Depth 16 3/8 inches
+App Compatible No
+Microwave Type Countertop
+Turntable Diameter 12 5/8 inches</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/lg-65-class-c3-series-oled-4k-uhd-smart-webos-tv/6535929.p?skuId=6535929</t>
+  </si>
+  <si>
+    <t>LG - 65" Class C3 Series OLED 4K UHD Smart webOS TV</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/razor-mx350-dirt-rocket-ebike-w-7-miles-max-operating-range-14-mph-max-speed-small-blue/3698469.p?skuId=3698469</t>
+  </si>
+  <si>
+    <t>Razor - MX350 Dirt Rocket eBike w/7 miles Max Operating Range &amp; 14 mph Max Speed - Small - Blue</t>
+  </si>
+  <si>
+    <t>Product Weight 62.7 pounds
+Battery Charge Time 12 hours
+Battery Voltage 12 volts
+Maximum Operating Range 7 miles
+Maximum Speed 14 miles per hour
+Electric Bike Classification Class 3</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/hamilton-beach-classic-4-slice-toaster-with-sure-toast-technology-stainless-steel/6518125.p?skuId=6518125</t>
+  </si>
+  <si>
+    <t>Hamilton Beach - Classic 4 Slice Toaster with Sure-Toast Technology - Stainless Steel</t>
+  </si>
+  <si>
+    <t>Function(s)
+Bagel, Defrost, Toast, Pastry, Waffle
+Number of Toasting Slots
+4</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/turbotax-deluxe-2023-federal-e-file-state-mac-os-windows-digital/6560825.p?skuId=6560825</t>
+  </si>
+  <si>
+    <t>TurboTax - Deluxe 2023 Federal + E-file &amp; State - Mac OS, Windows [Digital]</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/microsoft-365-family-up-to-6-people-12-month-subscription-activation-required-windows-mac-os-apple-ios-android-digital/6258038.p?skuId=6258038</t>
+  </si>
+  <si>
+    <t>Microsoft - 365 Family (Up to 6 People) (12-Month Subscription) - Activation Required - Windows, Mac OS, Apple iOS, Android [Digital]</t>
+  </si>
+  <si>
+    <t>Number of Users 1
+Number of Licenses 1
+Operating System Compatibility Mac OS, Windows
+Software Format Digital</t>
+  </si>
+  <si>
+    <t>Number of Users 6
+Number of Devices 5
+Number of Licenses 1
+Operating System Compatibility Windows, Mac OS, Apple iOS, Android
+Software Format Digital
+Subscription Period 1 Year</t>
+  </si>
+  <si>
+    <t>Wireless Yes
+Connectivity Technology Bluetooth
+Rechargeable Yes
+Battery Life 12 hours
+USB Device Charging Yes</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/hp-deskjet-2755e-wireless-inkjet-printer-with-3-months-of-instant-ink-included-with-hp-white/6454282.p?skuId=6454282</t>
+  </si>
+  <si>
+    <t>HP - DeskJet 2755e Wireless Inkjet Printer with 3 months of Instant Ink Included with HP+ - White</t>
+  </si>
+  <si>
+    <t>Mobile Device Printing Yes
+Networking Wireless
+ENERGY STAR Certified Yes
+Printer Type Printer, Scanner, Copier
+ISO Color Print Speed 5.5 pages per minute
+ISO Mono Print Speed 7.5 pages per minute</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/samsung-galaxy-s22-ultra-128gb-phantom-black-verizon/6494471.p?skuId=6494471</t>
+  </si>
+  <si>
+    <t>Samsung - Galaxy S22 Ultra 128GB - Phantom Black (Verizon)</t>
+  </si>
+  <si>
+    <t>Screen Size 6.8 inches
+Front-Facing Camera 40 megapixels
+Rear-Facing Camera 108 megapixels
+Series Galaxy S22</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/site/apple-iphone-14-128gb-unlocked-midnight/6507555.p?skuId=6507555</t>
+  </si>
+  <si>
+    <t>Apple - iPhone 14 128GB (Unlocked) - Midnight</t>
+  </si>
+  <si>
+    <t>Screen Size 6.1 inches
+Front-Facing Camera 12 megapixels
+Rear-Facing Camera 12 megapixels</t>
   </si>
 </sst>
 </file>
@@ -1017,18 +1159,18 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1052,7 +1194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1062,7 +1204,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1074,7 +1216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1086,7 +1228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1098,7 +1240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1110,7 +1252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1122,7 +1264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1134,7 +1276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1146,7 +1288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1158,7 +1300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1168,7 +1310,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1180,7 +1322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1192,7 +1334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1206,75 +1348,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
@@ -1282,7 +1424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
@@ -1290,31 +1432,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="D45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="D46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="D47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="D48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>38</v>
       </c>
@@ -1322,7 +1464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
@@ -1330,19 +1472,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="D51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="D52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>40</v>
       </c>
@@ -1350,7 +1492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
@@ -1358,25 +1500,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="D59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>43</v>
       </c>
@@ -1384,19 +1526,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="D61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="D62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>45</v>
       </c>
@@ -1404,7 +1546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>47</v>
       </c>
@@ -1412,12 +1554,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>49</v>
       </c>
@@ -1425,7 +1567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -1433,7 +1575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>52</v>
       </c>
@@ -1453,26 +1595,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8FFCC8-FB4D-413C-81EB-800110419A65}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" customWidth="1"/>
-    <col min="4" max="4" width="98.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" customWidth="1"/>
-    <col min="6" max="6" width="29.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
-    <col min="11" max="11" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="98.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1482,7 +1624,7 @@
       <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1504,7 +1646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1514,245 +1656,245 @@
       <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>150</v>
+      <c r="D4" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>151</v>
+      <c r="D5" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>152</v>
+      <c r="D10" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="D17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1762,14 +1904,14 @@
       <c r="C30" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1779,14 +1921,14 @@
       <c r="C31" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1796,14 +1938,14 @@
       <c r="C32" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1813,14 +1955,14 @@
       <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1830,14 +1972,14 @@
       <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1847,14 +1989,14 @@
       <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
@@ -1864,14 +2006,14 @@
       <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1881,14 +2023,14 @@
       <c r="C37" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1898,14 +2040,14 @@
       <c r="C38" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
@@ -1915,14 +2057,14 @@
       <c r="C39" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11</v>
       </c>
@@ -1932,14 +2074,14 @@
       <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -1949,14 +2091,14 @@
       <c r="C41" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13</v>
       </c>
@@ -1966,14 +2108,14 @@
       <c r="C42" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -1983,14 +2125,14 @@
       <c r="C43" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
@@ -2000,11 +2142,11 @@
       <c r="C44" t="s">
         <v>77</v>
       </c>
-      <c r="D44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D44" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>16</v>
       </c>
@@ -2014,11 +2156,11 @@
       <c r="C45" t="s">
         <v>77</v>
       </c>
-      <c r="D45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D45" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>17</v>
       </c>
@@ -2028,11 +2170,11 @@
       <c r="C46" t="s">
         <v>77</v>
       </c>
-      <c r="D46" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D46" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2042,11 +2184,11 @@
       <c r="C47" t="s">
         <v>77</v>
       </c>
-      <c r="D47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D47" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19</v>
       </c>
@@ -2056,11 +2198,11 @@
       <c r="C48" t="s">
         <v>77</v>
       </c>
-      <c r="D48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D48" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -2070,11 +2212,11 @@
       <c r="C49" t="s">
         <v>77</v>
       </c>
-      <c r="D49" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D49" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>21</v>
       </c>
@@ -2085,7 +2227,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>22</v>
       </c>
@@ -2096,7 +2238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>23</v>
       </c>
@@ -2107,7 +2249,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>24</v>
       </c>
@@ -2118,7 +2260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>25</v>
       </c>
@@ -2129,7 +2271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26</v>
       </c>
@@ -2140,7 +2282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27</v>
       </c>
@@ -2150,7 +2292,7 @@
       <c r="C56" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E56" s="2"/>
@@ -2164,7 +2306,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>28</v>
       </c>
@@ -2174,7 +2316,7 @@
       <c r="C57" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>122</v>
       </c>
       <c r="E57" s="2"/>
@@ -2188,7 +2330,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>29</v>
       </c>
@@ -2198,7 +2340,7 @@
       <c r="C58" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E58" s="2"/>
@@ -2212,7 +2354,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>30</v>
       </c>
@@ -2222,7 +2364,7 @@
       <c r="C59" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E59" s="2"/>
@@ -2236,243 +2378,447 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D65" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J65">
+        <v>211</v>
+      </c>
+      <c r="K65">
+        <v>729.99</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" ht="90" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I66" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J66">
+        <v>396</v>
+      </c>
+      <c r="K66">
+        <v>1199.99</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="135" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D67" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I67" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J67">
+        <v>3496</v>
+      </c>
+      <c r="K67">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D68" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I68" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J68">
+        <v>5938</v>
+      </c>
+      <c r="K68">
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" ht="120" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>130</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="E69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="3:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="F69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I69" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="J69" s="1">
+        <v>10362</v>
+      </c>
+      <c r="K69">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>130</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="1" t="s">
-        <v>132</v>
+        <v>191</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="I70" s="1">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J70" s="1">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" ht="29" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+      <c r="K70">
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>130</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="1" t="s">
-        <v>134</v>
+        <v>188</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I71" s="1">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J71" s="1">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" ht="29" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="K71">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="90" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>130</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="1" t="s">
-        <v>136</v>
+        <v>185</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="I72" s="1">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J72" s="1">
-        <v>5921</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" ht="159.5" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="K72">
+        <v>339.99</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>130</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="I73" s="1">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="J73" s="1">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" ht="261" x14ac:dyDescent="0.35">
+        <v>1499</v>
+      </c>
+      <c r="K73">
+        <v>1599.99</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" ht="105" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>130</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="I74" s="1">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="J74" s="1">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.35">
+        <v>860</v>
+      </c>
+      <c r="K74">
+        <v>139.99</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>130</v>
       </c>
-      <c r="D75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D75" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I75" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J75" s="1">
+        <v>380</v>
+      </c>
+      <c r="K75">
+        <v>44.99</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" ht="105" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>130</v>
       </c>
-      <c r="D76" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I76" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1527</v>
+      </c>
+      <c r="K76">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>130</v>
       </c>
-      <c r="D77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I77" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J77" s="1">
+        <v>32562</v>
+      </c>
+      <c r="K77">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" ht="120" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>130</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I78" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J78" s="1">
+        <v>106</v>
+      </c>
+      <c r="K78">
+        <v>349.99</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>130</v>
       </c>
-      <c r="D79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D79" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I79" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J79" s="1">
+        <v>41</v>
+      </c>
+      <c r="K79">
+        <v>94.99</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>130</v>
       </c>
-      <c r="D80" t="s">
-        <v>175</v>
+      <c r="D80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I80" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J80" s="1">
+        <v>777</v>
+      </c>
+      <c r="K80">
+        <v>399.99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D73" r:id="rId1" xr:uid="{811ED660-001E-4E8A-80C6-728534F9A173}"/>
-    <hyperlink ref="D74" r:id="rId2" xr:uid="{DEDC594A-A2C7-4F66-A7E5-6D8DFEA9E67F}"/>
-    <hyperlink ref="D72" r:id="rId3" xr:uid="{54C98A58-57BD-4CEC-BDB6-9D43620C9C0D}"/>
-    <hyperlink ref="D71" r:id="rId4" xr:uid="{5555D41F-F7F8-4B34-9976-EEE0691A5EC9}"/>
-    <hyperlink ref="D70" r:id="rId5" xr:uid="{3EE01161-EC61-4EEB-8749-06092492123A}"/>
-    <hyperlink ref="D30" r:id="rId6" xr:uid="{130ED931-C0D5-4631-8A44-4F9CED526F3D}"/>
-    <hyperlink ref="D31" r:id="rId7" xr:uid="{A76F5837-6645-4380-8C05-A032935932AA}"/>
-    <hyperlink ref="D32" r:id="rId8" xr:uid="{F4B38194-9784-42C6-B5FB-5DC0352BF3BC}"/>
-    <hyperlink ref="D33" r:id="rId9" xr:uid="{8EB8E547-29B8-4034-BC7A-1E38C13302F7}"/>
-    <hyperlink ref="D34" r:id="rId10" xr:uid="{D3B90A15-B487-4718-B67A-D9A783549002}"/>
-    <hyperlink ref="D35" r:id="rId11" xr:uid="{9240A67F-E936-4A7A-B8DD-99B93704DFD3}"/>
-    <hyperlink ref="D36" r:id="rId12" xr:uid="{15A49671-BF18-4C6B-8525-B693F179BD7A}"/>
-    <hyperlink ref="D37" r:id="rId13" xr:uid="{6221B301-6B94-46CC-8728-319A961E1C22}"/>
-    <hyperlink ref="D38" r:id="rId14" xr:uid="{0EA6C536-7C11-4E3B-A72C-D044F33EDC31}"/>
-    <hyperlink ref="D39" r:id="rId15" xr:uid="{EE7EB3A1-A27F-4709-AEEC-F8067DA82420}"/>
-    <hyperlink ref="D40" r:id="rId16" xr:uid="{68263586-9729-4689-A0D1-406BD38D45D8}"/>
-    <hyperlink ref="D41" r:id="rId17" xr:uid="{CA9189C5-F2CE-48A8-AAF3-BBE8517CE44B}"/>
-    <hyperlink ref="D42" r:id="rId18" xr:uid="{C44812AC-BA35-4E7E-8174-CAE21A17EAAE}"/>
-    <hyperlink ref="D43" r:id="rId19" xr:uid="{6276CFCE-9952-42A8-BA0A-B30C727BE342}"/>
-    <hyperlink ref="D56" r:id="rId20" xr:uid="{911155BB-A88A-4C90-A863-325DCD0E385B}"/>
-    <hyperlink ref="D57" r:id="rId21" xr:uid="{445282CD-8591-4C05-BE45-9FDE0FC92D35}"/>
-    <hyperlink ref="D58" r:id="rId22" xr:uid="{FBBAEFD8-1EA7-4308-A8DB-5B363FDE6573}"/>
-    <hyperlink ref="D59" r:id="rId23" xr:uid="{0D5F9383-36E8-4E03-BE21-427ED2729086}"/>
-    <hyperlink ref="D2" r:id="rId24" xr:uid="{CAD9AB78-FE3F-45E3-A8C4-3091ADF185E8}"/>
-    <hyperlink ref="D3" r:id="rId25" xr:uid="{0590ADB1-8931-47E6-A9F9-635B5C713D11}"/>
-    <hyperlink ref="D6" r:id="rId26" xr:uid="{8E2BE472-0220-4AFC-8868-DD61E717ED8A}"/>
-    <hyperlink ref="D7" r:id="rId27" xr:uid="{A2F21B63-6932-487D-8998-597425811A48}"/>
-    <hyperlink ref="D8" r:id="rId28" xr:uid="{79C1DC41-5DBC-4BDB-BDF0-84E81FA68FA1}"/>
-    <hyperlink ref="D9" r:id="rId29" xr:uid="{1EBCD253-DB99-4828-A82C-95E26C544FCB}"/>
-    <hyperlink ref="D11" r:id="rId30" xr:uid="{DB4CBE25-561E-4694-B7E1-01D96706296F}"/>
-    <hyperlink ref="D14" r:id="rId31" xr:uid="{09675619-C1DA-4BC4-A080-53E08339B896}"/>
-    <hyperlink ref="D15" r:id="rId32" xr:uid="{1CD5ED3E-0215-488D-8CF9-29EE2B7F29F6}"/>
-    <hyperlink ref="D12" r:id="rId33" xr:uid="{F5BD0E9E-68D4-4B40-A9D0-59034348797F}"/>
-    <hyperlink ref="D13" r:id="rId34" xr:uid="{61558A01-8BE8-49DB-8FDF-7949BD05D0CA}"/>
-    <hyperlink ref="D4" r:id="rId35" xr:uid="{D38CDF7D-9FE1-49F1-A1F8-28032F04F6AB}"/>
-    <hyperlink ref="D5" r:id="rId36" xr:uid="{530D22AE-701B-4A32-9512-660098BBDF57}"/>
-    <hyperlink ref="D10" r:id="rId37" xr:uid="{A8923910-483F-46D2-8ED9-C10E6AF959E8}"/>
-    <hyperlink ref="D78" r:id="rId38" xr:uid="{DB2F31ED-A20B-4C8C-8687-199BB200EF6C}"/>
+    <hyperlink ref="D30" r:id="rId1" xr:uid="{130ED931-C0D5-4631-8A44-4F9CED526F3D}"/>
+    <hyperlink ref="D31" r:id="rId2" xr:uid="{A76F5837-6645-4380-8C05-A032935932AA}"/>
+    <hyperlink ref="D32" r:id="rId3" xr:uid="{F4B38194-9784-42C6-B5FB-5DC0352BF3BC}"/>
+    <hyperlink ref="D33" r:id="rId4" xr:uid="{8EB8E547-29B8-4034-BC7A-1E38C13302F7}"/>
+    <hyperlink ref="D34" r:id="rId5" xr:uid="{D3B90A15-B487-4718-B67A-D9A783549002}"/>
+    <hyperlink ref="D35" r:id="rId6" xr:uid="{9240A67F-E936-4A7A-B8DD-99B93704DFD3}"/>
+    <hyperlink ref="D36" r:id="rId7" xr:uid="{15A49671-BF18-4C6B-8525-B693F179BD7A}"/>
+    <hyperlink ref="D37" r:id="rId8" xr:uid="{6221B301-6B94-46CC-8728-319A961E1C22}"/>
+    <hyperlink ref="D38" r:id="rId9" xr:uid="{0EA6C536-7C11-4E3B-A72C-D044F33EDC31}"/>
+    <hyperlink ref="D39" r:id="rId10" xr:uid="{EE7EB3A1-A27F-4709-AEEC-F8067DA82420}"/>
+    <hyperlink ref="D40" r:id="rId11" xr:uid="{68263586-9729-4689-A0D1-406BD38D45D8}"/>
+    <hyperlink ref="D41" r:id="rId12" xr:uid="{CA9189C5-F2CE-48A8-AAF3-BBE8517CE44B}"/>
+    <hyperlink ref="D42" r:id="rId13" xr:uid="{C44812AC-BA35-4E7E-8174-CAE21A17EAAE}"/>
+    <hyperlink ref="D43" r:id="rId14" xr:uid="{6276CFCE-9952-42A8-BA0A-B30C727BE342}"/>
+    <hyperlink ref="D56" r:id="rId15" xr:uid="{911155BB-A88A-4C90-A863-325DCD0E385B}"/>
+    <hyperlink ref="D57" r:id="rId16" xr:uid="{445282CD-8591-4C05-BE45-9FDE0FC92D35}"/>
+    <hyperlink ref="D58" r:id="rId17" xr:uid="{FBBAEFD8-1EA7-4308-A8DB-5B363FDE6573}"/>
+    <hyperlink ref="D59" r:id="rId18" xr:uid="{0D5F9383-36E8-4E03-BE21-427ED2729086}"/>
+    <hyperlink ref="D2" r:id="rId19" xr:uid="{CAD9AB78-FE3F-45E3-A8C4-3091ADF185E8}"/>
+    <hyperlink ref="D3" r:id="rId20" xr:uid="{0590ADB1-8931-47E6-A9F9-635B5C713D11}"/>
+    <hyperlink ref="D6" r:id="rId21" xr:uid="{8E2BE472-0220-4AFC-8868-DD61E717ED8A}"/>
+    <hyperlink ref="D7" r:id="rId22" xr:uid="{A2F21B63-6932-487D-8998-597425811A48}"/>
+    <hyperlink ref="D8" r:id="rId23" xr:uid="{79C1DC41-5DBC-4BDB-BDF0-84E81FA68FA1}"/>
+    <hyperlink ref="D9" r:id="rId24" xr:uid="{1EBCD253-DB99-4828-A82C-95E26C544FCB}"/>
+    <hyperlink ref="D11" r:id="rId25" xr:uid="{DB4CBE25-561E-4694-B7E1-01D96706296F}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{09675619-C1DA-4BC4-A080-53E08339B896}"/>
+    <hyperlink ref="D15" r:id="rId27" xr:uid="{1CD5ED3E-0215-488D-8CF9-29EE2B7F29F6}"/>
+    <hyperlink ref="D12" r:id="rId28" xr:uid="{F5BD0E9E-68D4-4B40-A9D0-59034348797F}"/>
+    <hyperlink ref="D13" r:id="rId29" xr:uid="{61558A01-8BE8-49DB-8FDF-7949BD05D0CA}"/>
+    <hyperlink ref="D4" r:id="rId30" xr:uid="{D38CDF7D-9FE1-49F1-A1F8-28032F04F6AB}"/>
+    <hyperlink ref="D5" r:id="rId31" xr:uid="{530D22AE-701B-4A32-9512-660098BBDF57}"/>
+    <hyperlink ref="D10" r:id="rId32" xr:uid="{A8923910-483F-46D2-8ED9-C10E6AF959E8}"/>
+    <hyperlink ref="D78" r:id="rId33" xr:uid="{DB2F31ED-A20B-4C8C-8687-199BB200EF6C}"/>
+    <hyperlink ref="D75" r:id="rId34" xr:uid="{7D001425-952B-4273-9E9A-FCE3CB5FFF9A}"/>
+    <hyperlink ref="D76" r:id="rId35" xr:uid="{156ECCF7-0BD4-43A9-B176-59C6D564886B}"/>
+    <hyperlink ref="D77" r:id="rId36" xr:uid="{918848D8-7BE5-4018-8C55-CEC7002CA9F2}"/>
+    <hyperlink ref="D79" r:id="rId37" xr:uid="{8E1E973E-3ACA-4E7C-AD67-B499DA21FEA1}"/>
+    <hyperlink ref="D80" r:id="rId38" xr:uid="{4FD46094-DAB9-4CD6-A190-C0C6227810FC}"/>
+    <hyperlink ref="D69" r:id="rId39" xr:uid="{7716567D-D933-48C2-9224-35CA8B300709}"/>
+    <hyperlink ref="D68" r:id="rId40" xr:uid="{6E2FCDC0-D3E2-4E28-9D42-F1F93D03797C}"/>
+    <hyperlink ref="D67" r:id="rId41" xr:uid="{417AACA0-6100-426E-85C1-0AF8CC02E529}"/>
+    <hyperlink ref="D66" r:id="rId42" xr:uid="{DAC37E6D-5373-4CEA-BF1C-8C46D88AC0DF}"/>
+    <hyperlink ref="D65" r:id="rId43" xr:uid="{1FD7B0EC-16E0-4C60-AE94-7B4720546328}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2487,19 +2833,19 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -2507,25 +2853,25 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data Collection.xlsx
+++ b/data/Data Collection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CU Boulder - Data Science\Spring 2024\Data Mining\Data_Backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f943686c21a634a0/Desktop/Data Mining/CSCI-Final-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8632A504-ECB9-41F3-83C2-D8FB0D9BADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{8632A504-ECB9-41F3-83C2-D8FB0D9BADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6ECBEC7-1754-4487-B5A7-BC71436C19A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="productCollectionList" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="271">
   <si>
     <t>id</t>
   </si>
@@ -279,9 +279,6 @@
     <t>https://a.co/d/6pjCaNX</t>
   </si>
   <si>
-    <t>Iphone 14</t>
-  </si>
-  <si>
     <t>amazon2</t>
   </si>
   <si>
@@ -505,24 +502,6 @@
   </si>
   <si>
     <t>https://www.target.com/p/dyson-ball-animal-3-extra-upright-vacuum/-/A-85269264</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hogwarts-Legacy-Xbox-English-Version-Region/dp/B0B9YSJC5S/ref=sr_1_2?crid=1K69XYMHWNR56&amp;dib=eyJ2IjoiMSJ9.Kg0XV9Kot63z1u2KagkEvpCVUtkbGXvapqAJX7afkiu3BdvCRxuMMxHq3-R-Vq88oqItB-jjTuSzsA4OUT3gHqxnGxm_W3ax9Bt1-kNDhIIrfk2DMuaREs1iW3ZpC41UpXGGXpnKaQWx_QR6PweYu_E0fgQaz6JOeKQrHgmpoGnZNkaPqUf-EzAWuLvi4LuOAF_AT5tsuZUIeboaBcrdGFpzu4TWaNBwkw4WmSvH7Vo.uFmuTgI86APUwJ8qSsprJqvZ4Dnr_EwLXhTo2K61-P0&amp;dib_tag=se&amp;keywords=hogwarts+legacy+xbox&amp;qid=1710278855&amp;sprefix=hogwarts+legacy+xbox%2Caps%2C129&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Star-Wars-Jedi-Survivor-Playstation-5/dp/B0BPD4JMWT/ref=sr_1_1?crid=1YEWINBQP33M2&amp;dib=eyJ2IjoiMSJ9.xmgn1bEBQh8fF6vN-_ijDTx3NnKfAvuz4KzU8chGgsL67cKZ-GVbOSb0nGWeW8mxQpNntErtqMVDRP2_Qvv6NVonWyAdXrQOG1vF3pQuiK5vfmslLzeTXkEtyMSwY0hE5dvkCY4Udzheb9VLdQgjV4RNjelCbXWMWS3HDuqkxw8RhbOBcyBB1KuJpYwpU0LO3JbTFOrTQoCecarfSPAyc01kEOKHqvHzXAHZPHjTRpo.vqAgJHJ_EuyQ0aHKHSEiLA9mvUUFdQtDGBvQua34gew&amp;dib_tag=se&amp;keywords=jedi+survivor+ps5&amp;qid=1710278950&amp;sprefix=jedi+survivor+ps%2Caps%2C174&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Mario-Kart-8-Deluxe-Nintendo-Switch/dp/B01N1037CV/ref=sr_1_1?crid=1PYFQU1N4B68F&amp;dib=eyJ2IjoiMSJ9.8TZU_Of0o7Vk3YWNjDE9oY9I_W3GMrGxHT454fa05jnyQhIJ1QoKGzaub95DXly85ZIxHf3U7vByBD9UHUHObxJwp-_uYmPTubto19uqmmQglLhYd3W-DOvMZz4lfv1l9ezRsNuuryHtJljvddmeIZdaJWrxpna-VU5FHp3braflTwk_ypjvU7neyKr_vIay2KHtiMOKVjqNxAnzmGjWABX-bq-mvp-ghJ0Hq7eY9h4.vohI6h3tcX_pnwUMLahacLD3yr74bAsNKv9eeH5rAp0&amp;dib_tag=se&amp;keywords=mario+kart+8+deluxe&amp;qid=1710279189&amp;sprefix=mario+kart+%2Caps%2C167&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Ninja-Woodfire-Technology-terracotta-OO101/dp/B0C6BQVDX3/ref=sr_1_3?crid=3DXGBNWLVTJHJ&amp;dib=eyJ2IjoiMSJ9.0WxsIb1exp9JW6Y3VWlsjnd4AbzdLgvTZ3dzGlCYh7z1OEIvxums8Mey72f26ju-BWrkrofq9sMNvCk49njaQbu-SN8ItGFSBFcq-t91Hsb6AE3rPWtoewiMwvt1h2JtkHhsZTKkYeLo0Y9nnD_eJ4STJOza34YIVUe9YB7S8nTqDnhXuTlMQ4TE6pHn3CnUHoVNJGIlgiU2ncUCADPEKpW5C2f1-rC8jpiw7k3qXsE.uqci_nwiB33tgkfGHQRjqPWrYYjoEoVkB-fSO930oYQ&amp;dib_tag=se&amp;keywords=Ninja%2BWoodfire%2BPizza%2BOven%2C%2B8-in-1%2BOutdoor%2BOven&amp;qid=1710280162&amp;sprefix=ninja%2Bwoodfire%2Bpizza%2Boven%2C%2B8-in-1%2Boutdoor%2Boven%2Caps%2C183&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/dp/B08YS7QZLL/ref=twister_B09V6MDSN6?_encoding=UTF8&amp;psc=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Dyson-Animal-Extra-Upright-Vacuum/dp/B0B57QV5TT/ref=sr_1_3?crid=2IQWXZR08I144&amp;dib=eyJ2IjoiMSJ9.t3iEOoxEJUwLPVoSUcRptqioH5l2EvX8s4APBjqpAjI4e18xB7pmNY8TyLEanhvfvEQqqscP3Xi13oKWZQuQ1MaGTAAh82rbXWBT5nZjBYQqPFp7PUAvYcMk9RslrAyAZS0Nwv3r6RQ8M2iBSK7DQAZmAK0ycSydB1nB1cVDRVBJ0bgIwOtJPiE6ohrQceFbK44RLbkqiNcgSv_YM7QC30n8grFBmSgixz1fAwZtEd8.ZIHRSLxkS_22b7rx1F4ymcSJXsCEuBy_aVi0A1DzCpU&amp;dib_tag=se&amp;keywords=Dyson%2B-%2BBall%2BAnimal%2B3%2BExtra%2BUpright&amp;qid=1710280601&amp;sprefix=dyson%2B-%2Bball%2Banimal%2B3%2Bextra%2Bupright%2Caps%2C176&amp;sr=8-3&amp;th=1</t>
   </si>
   <si>
     <t>https://www.bestbuy.com/site/hogwarts-legacy-standard-edition-xbox-series-x/6502627.p?skuId=6502627</t>
@@ -739,6 +718,468 @@
     <t>Screen Size 6.1 inches
 Front-Facing Camera 12 megapixels
 Rear-Facing Camera 12 megapixels</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14, 256GB, Blue - Unlocked (Renewed Premium)</t>
+  </si>
+  <si>
+    <t>Vibrant 6.1-inch Super Retina XDR display with OLED technology. Action mode for smooth, steady, handheld videos.
+High resolution and color accuracy make everything look sharp and true to life.
+New Main camera and improved image processing to capture your shots in all kinds of light - especially low light.
+4K Cinematic mode at 24 fps automatically shifts focus to the most important subject in a scene.
+A15 Bionic, with a 5‑core GPU for lightning-fast performance. Superfast 5G.</t>
+  </si>
+  <si>
+    <t>Brand - Apple
+Model Name - iPhone 14
+Wireless Carrier	 - Unlocked
+Operating System - iOS 15
+Cellular Technology - 5G
+Memory Storage Capacity - 256 GB
+Connectivity Technology	 - Wi-Fi
+Color - Blue
+Screen Size - 6.1 Inches
+Wireless network technology - GSM, LTE</t>
+  </si>
+  <si>
+    <t>Renewed Samsung Galaxy S22 Ultra 512GB - 8K Camera, S Pen, Long Battery, Fast Processor, Phantom Black</t>
+  </si>
+  <si>
+    <t>6.8", 1440 x 3088pixels, Infinity-O FHD+ Dynamic AMOLED 2X Display, 5000mAh Battery, Wireless Powershare
+512GB ROM, 12GB RAM, No SD Card Slot, Qualcomm SM8450 Snapdragon 8 Gen 1 (4nm), Octa-Core, Adreno 730
+Rear Camera: 108MP, f/1.8 + 10MP, f/4.9 + 10MP, f/2.4 + 12MP, f/2.2, Front Camera: 40MP, f/2.2, Android 12, One UI 4.1
+2G: GSM 850/900/1800/1900, CDMA 800/1900, 3G: HSDPA 850/900/1700(AWS)/1900/2100, CDMA2000 1xEV-DO, 4G LTE: 1/2/3/4/5/7/8/12/13/14/18/19/20/25/26/28/29/30/38/39/40/41/46/48/66/71, 5G: 1/3/5/7/8/20/28/38/41/66/71/260/261SA/NSA/Sub6/mmWave - Single SIM
+No Warranty. Compatible with Most GSM and CDMA Carriers like T-Mobile, AT&amp;T, MetroPCS, etc. Will Also work with CDMA Carriers Such as Verizon, Sprint.</t>
+  </si>
+  <si>
+    <t>Brand - SAMSUNG
+Model Name - Galaxy S22 Ultra 5G
+Wireless Carrier - Unlocked for All Carriers
+Operating System - Android
+Cellular Technology - 5G
+Memory Storage Capacity - 512 GB
+Connectivity Technology - Wi-Fi
+Color - Phantom Black
+Screen Size - 6.8 Inches
+Wireless network technology - Wi-Fi</t>
+  </si>
+  <si>
+    <t>HP DeskJet 2755e Wireless Color inkjet-printer, Print, scan, copy, Easy setup, Mobile printing, Best-for home, Instant Ink with HP+,white</t>
+  </si>
+  <si>
+    <t>PERFECT FOR HOME – Best for printing basic color documents like recipes, forms and travel documents. Print speeds up to 7.5 pages per minute in black or 5.5 pages per minute in color..Operating temperature range : 41 to 104°F / 5 to 40°C
+KEY FEATURES – Print, copy and scan in color, plus mobile and wireless printing
+INCLUDES FREE HP+ SMART FEATURES – Upgrade free to HP+ during setup to get advanced features for mobile printing, security, automatic updates and more. HP+ only works with an HP account, internet connection and Original HP Ink for the life of the printer.
+CONNECTIVITY – Dual-band Wi-Fi with self-reset automatically detects and resolves connectivity issues. Also includes USB 2.0 port.
+HP SMART APP – Simple, step-by-step guided setup. Print, scan, and copy everyday documents from your phone—from anywhere. Get advanced features with HP+ in the Smart app including mobile fax and advanced scanning features such as multi-item recognition.
+3 MONTHS OF INSTANT INK INCLUDED WITH HP+ – Print up to 700 pages a month and get ink delivered only when you need it. After 3 months, monthly fee applies unless cancelled, and you'll save up to 50% on ink.
+This printer is intended to work only with cartridges with original HP chips or circuitry and will block cartridges using non-HP chips or circuitry. Periodic firmware updates will maintain the effectiveness of these measures. Operating humidity range 20 to 80% RH (non-condensing).
+Dynamic security enabled printerCertain HP printers are intended to work only with cartridges that have a new or reused HP chip or electronic circuitry. These printers use dynamic security measures to block cartridges using a non-HP chip or electronic circuitry. Periodic firmware updates will maintain the effectiveness of these measures and block cartridges that previously worked. Reused HP chips and electronic circuitry enable the use of reused, re manufactured, and refilled cartridges.</t>
+  </si>
+  <si>
+    <t>Brand - HP
+Connectivity Technology - Wireless, USB
+Printing Technology - Inkjet
+Special Feature - auto-document feeder
+Color - white
+Model Name - 2755e
+Printer Output - Color
+Maximum Print Speed (Color) - 5.5 ppm
+Max Printspeed Monochrome - 7.5 ppm
+Item Weight - 7.55 Pounds</t>
+  </si>
+  <si>
+    <t>JBL Flip 5: Portable Wireless Bluetooth Speaker, IPX7 Waterproof - Black - Boomph's Comprehensive Ultimate Performance Cloth Solution for Your On-the-Go Sound Experience</t>
+  </si>
+  <si>
+    <t>Up to 20W of Audio Power | Bluetooth 4.2 Technology
+Supports A2DP, AVRCP | Plays up to 12 Hours on Full Charge
+IPX7 Waterproof Rating | PartyBoost Feature
+Tough and Durable | Made From 90% Recycled Plastic
+*PLEASE NOTE* - THE JBL FLIP 5 DOES *NOT* INCLUDE A USB WALL ADAPTER AND DOES *NOT* HAVE A 3.5mm AUX INPUT!</t>
+  </si>
+  <si>
+    <t>Brand - JBL
+Model Name - JBL Flip 5
+Speaker Type - Portable Bluetooth Speaker
+Connectivity Technology - Bluetooth
+Special Feature - waterproof, Stereo pairing</t>
+  </si>
+  <si>
+    <t>Microsoft 365 Family | 12-Month Subscription, Up to 6 People | Word, Excel, PowerPoint | 1TB OneDrive Cloud Storage | PC/MAC Instant Download | Activation Required</t>
+  </si>
+  <si>
+    <t>With 12 months of Microsoft 365 for up to six people, you and your family can have the tools to create, organize, and get things done.
+Bring out your best with premium Office apps, including Word, Excel, and PowerPoint.
+Your subscription includes 1 TB of OneDrive cloud storage for each person you share with, so they can easily access, edit, and share files and photos across all devices.
+Keep it all together with Outlook, an ad‑free app for your email, calendars, to do lists and contacts with security tools that keep your information protected.
+Protect your files with advanced security features like built‑in ransomware detection and recovery and you can use two‑step identity verification to access your most important files in OneDrive Personal Vault.
+Gives you the flexibility to use multiple PCs, Macs, iPads, iPhones and Android phones.</t>
+  </si>
+  <si>
+    <t>Platform: Subscription (PC/Mac)
+Edition: Microsoft 365 Family
+Subscription Term Name: Subscription - 12months</t>
+  </si>
+  <si>
+    <t>TurboTax Basic 2023 Tax Software, Federal Tax Return [PC/Mac Download]</t>
+  </si>
+  <si>
+    <t>Recommended for less-complex tax situations, claiming the Earned Income Tax Credit, or only need to file a Federal Tax Return.
+Includes 5 Federal e-files. State download and e-file additional. Free U.S.-based product support (hours may vary).
+Answer easy questions about your year and the right tax forms are filled in for you.
+TurboTax coaches you and double checks your return as you go.
+Up-to-date with the latest tax laws.</t>
+  </si>
+  <si>
+    <t>Platform For Display: Download
+Edition: Basic</t>
+  </si>
+  <si>
+    <t>Hamilton Beach 24782 Retro Toaster with Wide Slots, Sure-Toast echnology, Bagel &amp; Defrost Settings, Auto Boost to Lift Smaller Breads, 4 Slice, Polished Stainless Steel</t>
+  </si>
+  <si>
+    <t>EVENLY TOASTS BOTH SIDES OF SINGLE SLICE: With the Sure-Toast One Slice toast feature on the 4 slice toaster, you get perfectly toasted bread, with balanced color and texture on both sides every time you toast. Just press the One Slice button.
+EASILY RETRIEVE SMALLER BREADS: A convenient feature you won't find on all bread toasters, Auto Boost automatically lifts smaller breads like English muffins and gluten-free bread slices so they're easier to retrieve after toasting.
+FOOD THAT LOOKS AS GOOD AS IT TASTES: Even toasting improves color and texture of toast, English muffin, and sandwiches made with toasted breads.
+PERFECTLY TOASTS BAGELS: The bagel function toasts the cut side of the bagel and warms the outside for a great bagel-eating experience. You get crunchy, toasted bread on one side and warm, soft bread on the other.
+GIVE FROZEN FOODS EXTRA TIME TO COOK: Use the defrost setting for optimal cook time and flavor when toasting frozen breads and waffles. Just press one button to defrosts and toast.</t>
+  </si>
+  <si>
+    <t>Style: Toaster
+Brand - Hamilton Beach
+Color - Polished Stainless Steel
+Material - Stainless Steel
+Product Dimensions - 8.46"D x 11.81"W x 12.4"H
+Specific Uses For Product - Bagel</t>
+  </si>
+  <si>
+    <t>Razor MX350 Dirt Rocket Electric Motocross Off-Road Bike for Age 13+, Up to 30 Minutes Continuous Ride Time, 12" Air-Filled Tires, Hand-Operated Rear Brake, Twist Grip Throttle, Chain-Driven Motor</t>
+  </si>
+  <si>
+    <t>Authentic Motocross Frame Geometry, The Mx350 Scales Down The Dirt Bike To Size For Riders Ages 13+ And Up To 140 Lb (64 Kg).Fork: Double-crown, Grips: Soft, rubber..Cartoon character : Razor Motorcross
+High-Torque, Rear-Wheel Chain-Drive Delivers Increased Power And Traction
+Powers Riders At Speeds Of Up To 14 Mph (22 Km/H) With Up To 30 Minutes Of Continuous Use
+Features Adjustable-Angle, Riser-Style Handlebars, Spoked Wheels With 12" Pneumatic, Knobby Tires, Retractable Kickstand, And Hand-Operated Rear Brake
+24V (Two 12V) Sealed Lead-Acid Rechargeable Battery System</t>
+  </si>
+  <si>
+    <t>Max Rider Weight - 140 lbs (63 kg)
+Max Speed - 14 MPH (22.5 KPH)
+Battery - 24V, lead-acid
+Motor - 250W, single speed
+Run Time - Up to 30 mins
+Range - 7 miles (11 km)
+Brake - Hand operated, rear
+Wheels - 12" pneumatic
+Weight	 - 48.92 lbs (22.1 kg)</t>
+  </si>
+  <si>
+    <t>LG C3 Series 65-Inch Class OLED evo 4K Processor Smart Flat Screen TV for Gaming with Magic Remote AI-Powered OLED65C3PUA, 2023 with Alexa Built-in</t>
+  </si>
+  <si>
+    <t>LG OLED EVO: The LG OLED evo is powered by the a9 AI Processor Gen6—made exclusively for LG OLED—for beautiful picture and performance. The Brightness Booster improves brightness so you get luminous picture and high contrast, even in well-lit rooms.* AI-assisted deep learning analyzes what you're watching to choose the best picture and sound setting for your content.
+ULTRA SLIM DESIGN: The LG OLED evo C3 blends into the background with an almost invisible bezel for a seamless look. When you're finished watching, display paintings, photos and other content to blend the LG OLED evo C3 into your space.
+webOS 23 &amp; LG CHANNELS: Less searching, more streaming, thanks to the next generation of AI technology. Enjoy your favorite content including fitness, sports, entertainment and more. With Quick Cards, group your favorite apps into categories and use the Magic Remote to easily find what you're looking for. Get instant access to over 300 free channels with LG Channels.*
+DOLBY VISION + HOME THEATER: Experience the magic of the big screen right from your couch. Every LG OLED comes loaded with Dolby Vision for extraordinary color, contrast and brightness, plus Dolby Atmos* for wrap-around sound. Land in the center of the action with LG's FILMMAKER MODE, allowing you to see films just as the director intended.
+ULTIMATE GAMING: Packed with gaming features, the LG OLED evo C-Series comes with everything you need to win. Experience crisp, smooth imagery from a 0.1ms response time and native 120Hz refresh rate. All LG OLED TVs have NVIDIA G-Sync, AMD FreeSync Premium and VRR to further improve gaming quality. Four HDMI 2.1 inputs allow you to plug in all the devices you need. Whether you game on consoles or on the cloud,* the LG Game Dashboard and Game Optimizer put all the control at your fingertips.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Screen Size	65 Inches
+Brand	LG
+Supported Internet Services	Netflix, HBO Max, Disney Plus, Prime Video, Apple TV, Hulu, Paramount Plus, Peacock, Youtube TV, Spotify, iHeartRadio and more.Netflix, HBO Max, Disney Plus, Prime Video, Apple TV, Hulu, Paramount Plus, Peacock, Youtube TV, Spotify, iHeartR… See more
+Display Technology	OLED
+Product Dimensions	9.1"D x 56.7"W x 34.6"H
+Resolution	4K
+Refresh Rate	120
+Special Feature	AI Picture, AI Upscaling, FILMMAKER MODE, Picture Processor, Dolby Vision, Dynamic Tone Mapping, Dimming Technology, HDR (High Dynamic Range)AI Picture, AI Upscaling, FILMMAKER MODE, Picture Processor, Dolby Vision, Dynamic Tone Mapping, Dimming Tec… See more
+Model Name	C3
+Included Components	Remote Control Battery (AA x 2EA), Power Cable, Magic Remote, Quick Start Guide</t>
+  </si>
+  <si>
+    <t>GE APPLIANCES JES1460DSBB Countertop Microwave, 1.4 cu. ft, black</t>
+  </si>
+  <si>
+    <t>1.4 cu. ft. capacity
+Sensor cooking controls; Automatically adjusts time and power for delicious cooking results.
+Weight and time defrost: Simply enter the weight of the food, and the oven automatically sets the optimal defrosting time and power level or set your desired time for defrosting.
+Turntable: Rotates food throughout the cycle.
+Instant On controls: One-touch instant operation.</t>
+  </si>
+  <si>
+    <t>Brand	GE
+Product Dimensions	16.37"D x 21.87"W x 12.5"H
+Color	Black
+Capacity	1.4 Cubic Feet
+Special Feature	Express Cook - Instant-On 1-6, Shortcut Keys, Timer, Defrost, Turntable
+Recommended Uses For Product	Residential
+Installation Type	Countertop
+Wattage	1100 watts
+Material	Metal
+Included Components	Turntable</t>
+  </si>
+  <si>
+    <t>Windex Glass and Window Cleaner Spray Bottle, New Packaging Designed to Prevent Leakage and Breaking, Original Blue, 23 fl oz</t>
+  </si>
+  <si>
+    <t>Committed to bottles made from 100% recovered coastal plastic*
+*Recovered Coastal Plastic, in partnership with Plastic Bank, is post-consumer recycled plastic collected on land within 31 miles of an ocean so that it does not reach oceans or landfills.
+Windex Glass Cleaner leaves an unbeatable streak-free shine**
+**Based on Windex Original lab testing against leading competitor glass cleaners per Nielsen Scantrack US 52 weeks ended 3/29/19.
+Starts working on smudges and fingerprints even before you wipe</t>
+  </si>
+  <si>
+    <t>Size: 23 Fl Oz (Pack of 1)
+Brand	Windex
+Item Form	Liquid
+Scent	Original
+Specific Uses For Product	Window
+Material Feature	Recycled</t>
+  </si>
+  <si>
+    <t>Doritos, Nacho Cheese Flavored Tortilla Chips Party Size, 15 oz</t>
+  </si>
+  <si>
+    <t>Crest Cavity &amp; Tartar Protection Toothpaste, Whitening Baking Soda &amp; Peroxide, 5.7 oz, Pack of 2</t>
+  </si>
+  <si>
+    <t>Includes two 5.7 oz tubes of Crest Cavity &amp; Tartar Protection Toothpaste, Whitening Baking Soda &amp; Peroxide
+Contains baking soda and peroxide for a clean mounth feeling
+Whitens teeth by removing surface stains
+Gentle on tooth enamel
+Freshens breath for a clean feeling mouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Brand	Crest
+Flavor	Mint
+Age Range (Description)	Adult
+Item Form	Paste
+Target Audience	Unisex Adults</t>
+  </si>
+  <si>
+    <t>OXO Good Grips 3-PC Small Square Short POP Container Set, White,Grey</t>
+  </si>
+  <si>
+    <t>The OXO good grips 3-piece POP container value set is airtight, stackable, space-efficient and now dishwasher safe, making it easy to keep your dry foods fresh and your countertops (and cabinets) clutter free
+Set includes: Three 1.1 Qt Containers ideal for 1 lb of brown or confectioner’s sugar, tea and snacks
+Push the button to engage the airtight seal. The button doubles as a handle for the lid
+Convenient fill line makes storing a cinch
+For best results, always use the button to open and close. Do not carry POP Containers by the lid
+BPA free. Top-rack dishwasher safe</t>
+  </si>
+  <si>
+    <t>Pattern Name: Set
+Brand	OXO
+Color	White, Grey, Clear
+Material	Plastic
+Material Feature	BPA Free
+Capacity	1 Liters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://a.co/d/igwagkv </t>
+  </si>
+  <si>
+    <t>Hogwarts Legacy - Xbox One | English | EU Version Region Free</t>
+  </si>
+  <si>
+    <t>EXPLORE AN OPEN WORLD. The wizarding world awaits you. Freely roam Hogwarts, Hogsmeade, the Forbidden Forest, and the surrounding Overland area.
+BE THE WITCH OR WIZARD YOU WANT TO BE. Learn spells, brew potions, grow plants, and tend to magical beasts along your journey. Get sorted into your house, forge relationships, and master skills to become the witch or wizard you want to be.
+EXPERIENCE A NEW WIZARDING WORLD ADVENTURE. Experience the wizarding world in an unexplored era to uncover a hidden truth from its past. Battle against trolls, Dark Wizards, goblins, and more as you face a dangerous villain threatening the fate of the wizarding world.
+Import Region Free PEGI Version</t>
+  </si>
+  <si>
+    <t>Product Dimensions	3.94 x 1.97 x 0.5 inches; 2.4 ounces
+Type of item	CD-ROM
+Language	English
+Item model number	5051892238106
+Item Weight	2.4 ounces
+Manufacturer	Warner Bros Interactive Entertainment UK
+Date First Available	January 8, 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://a.co/d/g23bqY9 </t>
+  </si>
+  <si>
+    <t>Star Wars Jedi: Survivor - For Playstation 5</t>
+  </si>
+  <si>
+    <t>Continue Cal’s Journey – No longer a Padawan, Cal has come into his own and grown into a powerful Jedi Knight. Carrying the memories and expectations of the Jedi Order with him, his crusade against the Empire has only become more perilous
+Go Beyond Your Training – The cinematic combat system returns with additional Force abilities and new lightsaber fighting styles
+Explore an Untamed Galaxy – Discover new planets and familiar frontiers in the Star Wars galaxy, each with unique biomes, challenges, and enemies
+Master new skills, equipment, and abilities that will augment the ways you explore, fight, and roam</t>
+  </si>
+  <si>
+    <t>Package Dimensions	6.73 x 5.31 x 0.55 inches; 3.46 ounces
+Type of item	CD-ROM
+Item Weight	3.46 ounces
+Manufacturer	PlayStation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://a.co/d/i7CsVgM </t>
+  </si>
+  <si>
+    <t>Mario Kart 8 Deluxe - US Version</t>
+  </si>
+  <si>
+    <t>Hit the road with the definitive version of Mario Kart 8 and play anytime, anywhere. Race your friends or battle them in a revised battle mode for new and returning battle courses
+Play locally in up to 4-player multiplayer in 1080p while playing in TV Mode. Every track of the Wii U version, including DLC, makes a glorious return
+Plus, the Inklings appear at all-new guest characters, along with returning favorites, such as King Boo, Dry Bones, and Bowser Jr.
+Players can choose a new Smart Steering feature which makes driving and staying on the track easy for novice players and kids even at 200cc</t>
+  </si>
+  <si>
+    <t>Platform For Display: Nintendo Switch
+Edition: Standard
+Type of item	Video Game
+Language	English
+Item Weight	2.08 ounces
+Manufacturer	Nintendo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://a.co/d/0WIFDVd </t>
+  </si>
+  <si>
+    <t>Ninja Woodfire Pizza Oven, 8-in-1 outdoor oven, 5 Pizza Settings, Ninja Woodfire Technology, 700°F high heat, BBQ smoker, wood pellets, pizza stone, electric heat, portable, terracotta red, 9x13</t>
+  </si>
+  <si>
+    <t>8-IN-1 FUNCTIONALITY: Do more outdoors and turn any space into an outdoor kitchen; Pizza, Max Roast, Specialty Roast, Broil, Bake, Smoker, Dehydrate and Keep Warm.
+ARTISAN PIZZAS: 3-minute no turn, no fuss pizzas. Choose from 5 different settings to satisfy any craving; Neapolitan, Thin Crust, Pan, New York, and Frozen. *cooked at 700°F excludes 25-minute preheat.
+700°F PREMIUM RESULTS: Brick oven-inspired results without the hassle—charring, caramelization, blistering and crunch for premium textures and flavors.
+FEED A CROWD: Fit up to 12-lb turkey, 9-lb pork shoulder, 12-lb prime rib dinner with veggies, 12-inch pizza, full sheet-pan meal or a standard 8x11 casserole dish.
+SMOKY FLAVORS ON ANYTHING: Add authentic BBQ flavors to anything you make with just 1/2 cup of pellets at any temperature up to 700°F.
+COMPLETE TEMPERATURE CONTROL: No flame, full control. Electric heat unlocks a wide range of temps from 105-700°F. Expand your horizons and cook more outdoors.
+HIGH HEAT ROASTER: 700°F max heat for Max Roast and Specialty Roast. Get high-heat char on steaks in under 7 mins, full meals up to 40% faster*, or cook a full roast with crispy outsides and juicy insides. *vs. indoor oven. Excludes 25-minute preheat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Brand	Ninja
+Color	Terracotta Red
+Product Dimensions	21.5"D x 18"W x 15.1"H
+Special Feature	Auto Cook, Timer, Racks, Programmable
+Control Type	Knob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://a.co/d/4IvJv28 </t>
+  </si>
+  <si>
+    <t>Igloo 24 qt IMX Lockable Insulated Ice Chest Injection Molded Cooler</t>
+  </si>
+  <si>
+    <t>Ultratherm insulation in the body &amp; lid provides four days of ice retention
+Holds up to 35 cans
+Cool Riser Technology improves cooling performance
+Removable wire basket
+Anti-skid feet on the base keep the cooler stable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Brand	Igloo
+Color	Gray
+Material	Plastic
+Package Information	Bottle,Cans,Cup
+Capacity	24 Quarts
+Item Weight	16.45 Pounds
+Special Feature	Lightweight
+Included Components	Bottle opener
+Recommended Uses For Product	Camping
+Model Name	IMX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://a.co/d/88HEXAh </t>
+  </si>
+  <si>
+    <t>The best cleaning performance of any upright de-tangling vacuum.¹
+Engineered for larger homes with pets. Removes dirt and pet hair around your home. Easily tackles big messes. With two additional specialized pet tools.
+De-tangling technology. Automatically clears wrapped hair from the brush bar as you clean.
+Specialized pet tools. Pet groom tool for medium and long-haired pets.² Tangle-free turbine tool removes pet hair from upholstery and cars.
+Ball technology. Navigate around obstacles with a simple turn of the wrist. For easy, precise maneuvering around your home.
+3 cleaning modes. Select the right cleaning mode for the right task. Optimized for a variety of floor types, for complete control over your clean.
+5 Dyson-engineered accessories. Tangle-free turbine tool, Pet groom tool, tool holder, stair tool, combination toolThe best cleaning performance of any upright de-tangling vacuum.¹
+Engineered for larger homes with pets. Removes dirt and pet hair around your home. Easily tackles big messes. With two additional specialized pet tools.
+De-tangling technology. Automatically clears wrapped hair from the brush bar as you clean.
+Specialized pet tools. Pet groom tool for medium and long-haired pets.² Tangle-free turbine tool removes pet hair from upholstery and cars.
+Ball technology. Navigate around obstacles with a simple turn of the wrist. For easy, precise maneuvering around your home.
+3 cleaning modes. Select the right cleaning mode for the right task. Optimized for a variety of floor types, for complete control over your clean.
+5 Dyson-engineered accessories. Tangle-free turbine tool, Pet groom tool, tool holder, stair tool, combination tool</t>
+  </si>
+  <si>
+    <t>Brand	Dyson
+Special Feature	De-tangling Motorbar™ cleaner head, Corded, Whole-machine filtration, Pet groom tool, Bagless
+Filter Type	Washable
+Included Components	Tangle-free turbine tool, Combination Tool, Stair tool, Dyson Ball Animal 3 Extra upright vacuum cleaner, Pet groom tool, Tool holderTangle-free turbine tool, Combination Tool, Stair tool, Dyson Ball Animal 3 Extra upright vacuum cleaner, Pet groom tool, Tool holder</t>
+  </si>
+  <si>
+    <t>RICHLY PIGMENTED, BOLD LIPSTICK: Serve up your best O face with bold, satiny color in one single swipe that creates a satin finish.
+HYDRATING &amp; LONG-LASTING FORMULA: e.l.f. Cosmetics’ O Face Satin Lipstick's creamy, long-lasting formula is infused with nourishing &amp; hydrating squalane and jojoba esters for a super-comfortable, next-to-nothing feel.
+AVAILABLE IN 20 SHADES: e.l.f. O Face Satin Lipstick is available in 20 sultry shades. Dirty Talk is a beige pink.
+BEAUTY TIP: Exfoliate lips with e.l.f.’s Lip Exfoliator, use our e.l.f. Love Triangle Lip Filler Liner to line, and finish with the O Face Satin Lipstick for a complete lip look. Dirty Talk goes great with Love Triangle Lip Filler Liner in Soft Pink.
+SKIN-LOVING INGREDIENTS: All e.l.f. products are made from skin-loving ingredients you want, minus the toxins you don’t—all at good-for-you prices. All e.l.f. products are 100% cruelty-free and Vegan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Brand	e.l.f.
+Color	No Regrets
+Skin Type	All
+Item Form	Pencil
+Finish Type	Satin</t>
+  </si>
+  <si>
+    <t>SKIN-CARING: Radiance is boosted, the appearance of fine lines and wrinkles is reduced in 4 weeks, and skin elasticity is improved over time
+BENEFITS: Skin-caring foundation leaves skin looking healthy, plump, and naturally radiant
+INGREDIENTS: Infused with 5% Squalane + Hyaluronic acid
+COVERAGE: Medium coverage
+FIND YOUR SHADE: 28 buildable shades</t>
+  </si>
+  <si>
+    <t>Item Form	Cream
+Color	Creamy Natural
+Skin Type	All
+Finish Type	Radiant
+Recommended Uses For Product	Face Makeup</t>
+  </si>
+  <si>
+    <t>LEYAOYAO Cube Bookshelf 3 Tier Mid-Century Rustic Brown Modern Bookcase with Legs</t>
+  </si>
+  <si>
+    <t>【Vibrant Mid-Century Modern Bookshelf】 The 3 tier bookshelf is brought to life by a special mysterious brown and crisscross partition design. The unique appearance allows you to enjoy both retro and modern styles. Reshape your storage space with LEYAOYAO’s charming vintage brown modern cube bookshelves, making your home/office/school more elegant and stylish.
+【Reliable Materials &amp; Sturdy Structure】This durable 3 shelf bookcase is made of high quality board with high glossy finish veneer. Single weight capacity of each open cube shelf is up to 35 lbs. The canted legs of this standing bookcase are environmentally friendly thick plastic supported by four metal screws for extra stability.
+【Suitable Size &amp; Great Display】The simple upright and open design of the book shelves can help you to save much more space in your house. This brown bookshelf can be used as a storage shelf organizer and display shelf rack. Fill this creative display cabinet with your favorites! Choose a best display organizer for your books, CDs, magazines, and collections! Product size:31.5"L x 9.45" W x 43.31" H
+【Thicker Packaging &amp; Easy to Install】 We packaged the bookcases particularly with thickened foams and firmed edges to protect it in good condition upon arriving. The rustic wood bookshelf comes with step-by-step instructions, all numbered parts and extra tools for your convenience.
+【Considerate Details】All decorative wood cube storage organizer bookshelves come with full unit back pieces to prevent the shelf from wobbling or separating apart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Room Type	Office, Living Room, Bedroom
+Number of Shelves	7
+Special Feature	Sturdy
+Product Dimensions	9.45"D x 31.5"W x 43.3"H
+Style	Vintage_style
+Age Range (Description)	Adult
+Brand	LEYAOYAO
+Product Care Instructions	Wipe with Dry Cloth
+Size	7 Cube
+Weight Limit	35 Pounds</t>
+  </si>
+  <si>
+    <t>REVERSIBLE OTTOMAN: This sofa turns modular with an independent matching ottoman that can conveniently be placed on either side for a versatile chaise lounger design
+MULTIPURPOSE DESIGN: An attractive, multipurpose design makes it perfect for various spaces such as your living room, college dorm, home office, and more
+QUALITY CONSTRUCTION: Crafted with super soft fabric and a sturdy wood frame, helping ensure a sofa that keeps you and guests comfortable for years to come
+ROOM FOR 3: Designed for compact areas such as an apartment or bonus room, with a space-saving yet heavy-duty design that allows for up to 3 people and 680 pounds
+EASY, TOOL FREE ASSEMBLY: Put it together in as little as 15 minutes by aligning brackets and screwing a few pieces together before opening up the seat and back cushions for comfy lounging; OVERALL DIMENSIONS (w/ Ottoman): 78"(L) x 54"(W) x 34"(H); WEIGHT CAPACITY: 680lbs.; Items contained in 2 separate boxes. Transportation times may vary per box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Brand	Best Choice Products
+Assembly Required	Yes
+Seat Depth	24 inches
+Seat Height	18 Inches
+Weight Limit	680 Pounds
+Product Dimensions	52"D x 78"W x 34"H
+Item Weight	106 Pounds
+Leg Length	4 Inches
+Type	Sofa Chaise
+Color	Blue/Gray</t>
   </si>
 </sst>
 </file>
@@ -802,16 +1243,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -819,6 +1258,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1163,14 +1605,14 @@
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,30 +1624,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1216,32 +1658,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1252,8 +1694,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1264,8 +1706,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1276,11 +1718,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1"/>
@@ -1288,8 +1730,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1300,8 +1742,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1310,8 +1752,8 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1322,8 +1764,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1334,89 +1776,89 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
@@ -1424,7 +1866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
@@ -1432,31 +1874,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="D45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="D46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="D47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="D48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
         <v>38</v>
       </c>
@@ -1464,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
@@ -1472,19 +1914,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="D51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="D52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>40</v>
       </c>
@@ -1492,7 +1934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
@@ -1500,25 +1942,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="D59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
         <v>43</v>
       </c>
@@ -1526,19 +1968,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="D61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="D62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
         <v>45</v>
       </c>
@@ -1546,7 +1988,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>47</v>
       </c>
@@ -1554,12 +1996,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
         <v>49</v>
       </c>
@@ -1567,7 +2009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -1575,7 +2017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>52</v>
       </c>
@@ -1595,33 +2037,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8FFCC8-FB4D-413C-81EB-800110419A65}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="98.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="8" width="66.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1639,875 +2081,1281 @@
       <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>140</v>
+      <c r="D4" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>141</v>
+      <c r="D5" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="15" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C26" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C29" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>101</v>
+      </c>
+      <c r="K30" s="1">
+        <v>664.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>356</v>
+      </c>
+      <c r="K31" s="1">
+        <v>619.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="406" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D32" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="F32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J32" s="1">
+        <v>8044</v>
+      </c>
+      <c r="K32" s="1">
+        <v>49.89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="F33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J33" s="1">
+        <v>365</v>
+      </c>
+      <c r="K33" s="1">
+        <v>89.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="F34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J34" s="1">
+        <v>305</v>
+      </c>
+      <c r="K34" s="1">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="F35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="J35" s="1">
+        <v>46</v>
+      </c>
+      <c r="K35" s="1">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="F36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>78</v>
+      </c>
+      <c r="K36" s="1">
+        <v>49.98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="F37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2165</v>
+      </c>
+      <c r="K37" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J38" s="1">
+        <v>322</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D39" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="F39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>126</v>
+      </c>
+      <c r="K39" s="1">
+        <v>139.99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>11</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="F40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J40" s="1">
+        <v>204</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>12</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="F41" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>13</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="F42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J42" s="1">
+        <v>9</v>
+      </c>
+      <c r="K42" s="1">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>14</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="F43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J43" s="1">
+        <v>415</v>
+      </c>
+      <c r="K43" s="1">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>15</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="J44" s="1">
+        <v>28</v>
+      </c>
+      <c r="K44" s="1">
+        <v>39.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="D45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I45" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J45" s="1">
         <v>16</v>
       </c>
-      <c r="B45" t="s">
+      <c r="K45" s="1">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>17</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>17</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D46" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J46" s="1">
+        <v>6453</v>
+      </c>
+      <c r="K46" s="1">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D47" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I47" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J47" s="1">
+        <v>150</v>
+      </c>
+      <c r="K47" s="1">
+        <v>349.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>19</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J48" s="1">
+        <v>122</v>
+      </c>
+      <c r="K48" s="1">
+        <v>94.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="377" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>20</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D49" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J49" s="1">
+        <v>357</v>
+      </c>
+      <c r="K49" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>21</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>21</v>
-      </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>22</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>23</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>23</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>24</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>25</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>25</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>26</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>26</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>27</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>27</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="1" t="s">
-        <v>120</v>
+      <c r="G56" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="I56" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J56" s="4">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="J56" s="6">
+        <v>312</v>
+      </c>
+      <c r="K56" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>28</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="1" t="s">
-        <v>123</v>
+      <c r="G57" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="I57" s="1">
         <v>4.2</v>
       </c>
-      <c r="J57" s="4">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="J57" s="6">
+        <v>386</v>
+      </c>
+      <c r="K57" s="1">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>29</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="1" t="s">
-        <v>126</v>
+      <c r="G58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="I58" s="1">
         <v>4.5</v>
       </c>
-      <c r="J58" s="4">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="J58" s="6">
+        <v>566</v>
+      </c>
+      <c r="K58" s="1">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="232" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>30</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C59" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="1" t="s">
-        <v>129</v>
+      <c r="G59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="I59" s="1">
         <v>4</v>
       </c>
-      <c r="J59" s="4">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>203</v>
+      <c r="J59" s="6">
+        <v>502</v>
+      </c>
+      <c r="K59" s="1">
+        <v>359.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C60" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C61" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C62" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C63" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C64" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I65" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="1">
         <v>211</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="1">
         <v>729.99</v>
       </c>
     </row>
-    <row r="66" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>200</v>
+    <row r="66" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="C66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I66" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="1">
         <v>396</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="1">
         <v>1199.99</v>
       </c>
     </row>
-    <row r="67" spans="3:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>197</v>
+    <row r="67" spans="3:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="C67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I67" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="1">
         <v>3496</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="1">
         <v>49.99</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    <row r="68" spans="3:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="F68" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I68" s="1">
         <v>4.8</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="1">
         <v>5938</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="1">
         <v>89.99</v>
       </c>
     </row>
-    <row r="69" spans="3:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E69" s="1"/>
+    <row r="69" spans="3:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="C69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="F69" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I69" s="1">
         <v>4.5</v>
@@ -2515,23 +3363,23 @@
       <c r="J69" s="1">
         <v>10362</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="1">
         <v>99.99</v>
       </c>
     </row>
-    <row r="70" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E70" s="3"/>
+    <row r="70" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="C70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I70" s="1">
         <v>4.5999999999999996</v>
@@ -2539,23 +3387,23 @@
       <c r="J70" s="1">
         <v>315</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="1">
         <v>69.989999999999995</v>
       </c>
     </row>
-    <row r="71" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>130</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E71" s="3"/>
+    <row r="71" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="C71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I71" s="1">
         <v>4.5</v>
@@ -2563,23 +3411,23 @@
       <c r="J71" s="1">
         <v>28</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="1">
         <v>49.99</v>
       </c>
     </row>
-    <row r="72" spans="3:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E72" s="3"/>
+    <row r="72" spans="3:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="C72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I72" s="1">
         <v>4.4000000000000004</v>
@@ -2587,20 +3435,20 @@
       <c r="J72" s="1">
         <v>200</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="1">
         <v>339.99</v>
       </c>
     </row>
-    <row r="73" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="3"/>
+    <row r="73" spans="3:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I73" s="1">
         <v>4.8</v>
@@ -2608,23 +3456,23 @@
       <c r="J73" s="1">
         <v>1499</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="1">
         <v>1599.99</v>
       </c>
     </row>
-    <row r="74" spans="3:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" s="3"/>
+    <row r="74" spans="3:11" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="2"/>
       <c r="F74" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I74" s="1">
         <v>4</v>
@@ -2632,22 +3480,22 @@
       <c r="J74" s="1">
         <v>860</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="1">
         <v>139.99</v>
       </c>
     </row>
-    <row r="75" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>130</v>
-      </c>
-      <c r="D75" s="3" t="s">
+    <row r="75" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="C75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="I75" s="1">
         <v>4.8</v>
@@ -2655,22 +3503,22 @@
       <c r="J75" s="1">
         <v>380</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="1">
         <v>44.99</v>
       </c>
     </row>
-    <row r="76" spans="3:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>130</v>
-      </c>
-      <c r="D76" s="3" t="s">
+    <row r="76" spans="3:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C76" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I76" s="1">
         <v>4.7</v>
@@ -2678,22 +3526,22 @@
       <c r="J76" s="1">
         <v>1527</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="1">
         <v>34.99</v>
       </c>
     </row>
-    <row r="77" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>130</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>163</v>
+    <row r="77" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="C77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I77" s="1">
         <v>4.9000000000000004</v>
@@ -2701,22 +3549,22 @@
       <c r="J77" s="1">
         <v>32562</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="1">
         <v>39.99</v>
       </c>
     </row>
-    <row r="78" spans="3:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>130</v>
-      </c>
-      <c r="D78" s="3" t="s">
+    <row r="78" spans="3:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="C78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I78" s="1">
         <v>4.8</v>
@@ -2724,22 +3572,22 @@
       <c r="J78" s="1">
         <v>106</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="1">
         <v>349.99</v>
       </c>
     </row>
-    <row r="79" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>130</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>164</v>
+    <row r="79" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="C79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I79" s="1">
         <v>4.5999999999999996</v>
@@ -2747,22 +3595,22 @@
       <c r="J79" s="1">
         <v>41</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="1">
         <v>94.99</v>
       </c>
     </row>
-    <row r="80" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>130</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>165</v>
+    <row r="80" spans="3:11" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C80" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I80" s="1">
         <v>4.5999999999999996</v>
@@ -2770,55 +3618,38 @@
       <c r="J80" s="1">
         <v>777</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="1">
         <v>399.99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" xr:uid="{130ED931-C0D5-4631-8A44-4F9CED526F3D}"/>
-    <hyperlink ref="D31" r:id="rId2" xr:uid="{A76F5837-6645-4380-8C05-A032935932AA}"/>
-    <hyperlink ref="D32" r:id="rId3" xr:uid="{F4B38194-9784-42C6-B5FB-5DC0352BF3BC}"/>
-    <hyperlink ref="D33" r:id="rId4" xr:uid="{8EB8E547-29B8-4034-BC7A-1E38C13302F7}"/>
-    <hyperlink ref="D34" r:id="rId5" xr:uid="{D3B90A15-B487-4718-B67A-D9A783549002}"/>
-    <hyperlink ref="D35" r:id="rId6" xr:uid="{9240A67F-E936-4A7A-B8DD-99B93704DFD3}"/>
-    <hyperlink ref="D36" r:id="rId7" xr:uid="{15A49671-BF18-4C6B-8525-B693F179BD7A}"/>
-    <hyperlink ref="D37" r:id="rId8" xr:uid="{6221B301-6B94-46CC-8728-319A961E1C22}"/>
-    <hyperlink ref="D38" r:id="rId9" xr:uid="{0EA6C536-7C11-4E3B-A72C-D044F33EDC31}"/>
-    <hyperlink ref="D39" r:id="rId10" xr:uid="{EE7EB3A1-A27F-4709-AEEC-F8067DA82420}"/>
-    <hyperlink ref="D40" r:id="rId11" xr:uid="{68263586-9729-4689-A0D1-406BD38D45D8}"/>
-    <hyperlink ref="D41" r:id="rId12" xr:uid="{CA9189C5-F2CE-48A8-AAF3-BBE8517CE44B}"/>
-    <hyperlink ref="D42" r:id="rId13" xr:uid="{C44812AC-BA35-4E7E-8174-CAE21A17EAAE}"/>
-    <hyperlink ref="D43" r:id="rId14" xr:uid="{6276CFCE-9952-42A8-BA0A-B30C727BE342}"/>
-    <hyperlink ref="D56" r:id="rId15" xr:uid="{911155BB-A88A-4C90-A863-325DCD0E385B}"/>
-    <hyperlink ref="D57" r:id="rId16" xr:uid="{445282CD-8591-4C05-BE45-9FDE0FC92D35}"/>
-    <hyperlink ref="D58" r:id="rId17" xr:uid="{FBBAEFD8-1EA7-4308-A8DB-5B363FDE6573}"/>
-    <hyperlink ref="D59" r:id="rId18" xr:uid="{0D5F9383-36E8-4E03-BE21-427ED2729086}"/>
-    <hyperlink ref="D2" r:id="rId19" xr:uid="{CAD9AB78-FE3F-45E3-A8C4-3091ADF185E8}"/>
-    <hyperlink ref="D3" r:id="rId20" xr:uid="{0590ADB1-8931-47E6-A9F9-635B5C713D11}"/>
-    <hyperlink ref="D6" r:id="rId21" xr:uid="{8E2BE472-0220-4AFC-8868-DD61E717ED8A}"/>
-    <hyperlink ref="D7" r:id="rId22" xr:uid="{A2F21B63-6932-487D-8998-597425811A48}"/>
-    <hyperlink ref="D8" r:id="rId23" xr:uid="{79C1DC41-5DBC-4BDB-BDF0-84E81FA68FA1}"/>
-    <hyperlink ref="D9" r:id="rId24" xr:uid="{1EBCD253-DB99-4828-A82C-95E26C544FCB}"/>
-    <hyperlink ref="D11" r:id="rId25" xr:uid="{DB4CBE25-561E-4694-B7E1-01D96706296F}"/>
-    <hyperlink ref="D14" r:id="rId26" xr:uid="{09675619-C1DA-4BC4-A080-53E08339B896}"/>
-    <hyperlink ref="D15" r:id="rId27" xr:uid="{1CD5ED3E-0215-488D-8CF9-29EE2B7F29F6}"/>
-    <hyperlink ref="D12" r:id="rId28" xr:uid="{F5BD0E9E-68D4-4B40-A9D0-59034348797F}"/>
-    <hyperlink ref="D13" r:id="rId29" xr:uid="{61558A01-8BE8-49DB-8FDF-7949BD05D0CA}"/>
-    <hyperlink ref="D4" r:id="rId30" xr:uid="{D38CDF7D-9FE1-49F1-A1F8-28032F04F6AB}"/>
-    <hyperlink ref="D5" r:id="rId31" xr:uid="{530D22AE-701B-4A32-9512-660098BBDF57}"/>
-    <hyperlink ref="D10" r:id="rId32" xr:uid="{A8923910-483F-46D2-8ED9-C10E6AF959E8}"/>
-    <hyperlink ref="D78" r:id="rId33" xr:uid="{DB2F31ED-A20B-4C8C-8687-199BB200EF6C}"/>
-    <hyperlink ref="D75" r:id="rId34" xr:uid="{7D001425-952B-4273-9E9A-FCE3CB5FFF9A}"/>
-    <hyperlink ref="D76" r:id="rId35" xr:uid="{156ECCF7-0BD4-43A9-B176-59C6D564886B}"/>
-    <hyperlink ref="D77" r:id="rId36" xr:uid="{918848D8-7BE5-4018-8C55-CEC7002CA9F2}"/>
-    <hyperlink ref="D79" r:id="rId37" xr:uid="{8E1E973E-3ACA-4E7C-AD67-B499DA21FEA1}"/>
-    <hyperlink ref="D80" r:id="rId38" xr:uid="{4FD46094-DAB9-4CD6-A190-C0C6227810FC}"/>
-    <hyperlink ref="D69" r:id="rId39" xr:uid="{7716567D-D933-48C2-9224-35CA8B300709}"/>
-    <hyperlink ref="D68" r:id="rId40" xr:uid="{6E2FCDC0-D3E2-4E28-9D42-F1F93D03797C}"/>
-    <hyperlink ref="D67" r:id="rId41" xr:uid="{417AACA0-6100-426E-85C1-0AF8CC02E529}"/>
-    <hyperlink ref="D66" r:id="rId42" xr:uid="{DAC37E6D-5373-4CEA-BF1C-8C46D88AC0DF}"/>
-    <hyperlink ref="D65" r:id="rId43" xr:uid="{1FD7B0EC-16E0-4C60-AE94-7B4720546328}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{CAD9AB78-FE3F-45E3-A8C4-3091ADF185E8}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{0590ADB1-8931-47E6-A9F9-635B5C713D11}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{8E2BE472-0220-4AFC-8868-DD61E717ED8A}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{A2F21B63-6932-487D-8998-597425811A48}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{79C1DC41-5DBC-4BDB-BDF0-84E81FA68FA1}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{1EBCD253-DB99-4828-A82C-95E26C544FCB}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{DB4CBE25-561E-4694-B7E1-01D96706296F}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{09675619-C1DA-4BC4-A080-53E08339B896}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{1CD5ED3E-0215-488D-8CF9-29EE2B7F29F6}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{F5BD0E9E-68D4-4B40-A9D0-59034348797F}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{61558A01-8BE8-49DB-8FDF-7949BD05D0CA}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{D38CDF7D-9FE1-49F1-A1F8-28032F04F6AB}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{530D22AE-701B-4A32-9512-660098BBDF57}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{A8923910-483F-46D2-8ED9-C10E6AF959E8}"/>
+    <hyperlink ref="D78" r:id="rId15" xr:uid="{DB2F31ED-A20B-4C8C-8687-199BB200EF6C}"/>
+    <hyperlink ref="D75" r:id="rId16" xr:uid="{7D001425-952B-4273-9E9A-FCE3CB5FFF9A}"/>
+    <hyperlink ref="D76" r:id="rId17" xr:uid="{156ECCF7-0BD4-43A9-B176-59C6D564886B}"/>
+    <hyperlink ref="D77" r:id="rId18" xr:uid="{918848D8-7BE5-4018-8C55-CEC7002CA9F2}"/>
+    <hyperlink ref="D79" r:id="rId19" xr:uid="{8E1E973E-3ACA-4E7C-AD67-B499DA21FEA1}"/>
+    <hyperlink ref="D80" r:id="rId20" xr:uid="{4FD46094-DAB9-4CD6-A190-C0C6227810FC}"/>
+    <hyperlink ref="D69" r:id="rId21" xr:uid="{7716567D-D933-48C2-9224-35CA8B300709}"/>
+    <hyperlink ref="D68" r:id="rId22" xr:uid="{6E2FCDC0-D3E2-4E28-9D42-F1F93D03797C}"/>
+    <hyperlink ref="D67" r:id="rId23" xr:uid="{417AACA0-6100-426E-85C1-0AF8CC02E529}"/>
+    <hyperlink ref="D66" r:id="rId24" xr:uid="{DAC37E6D-5373-4CEA-BF1C-8C46D88AC0DF}"/>
+    <hyperlink ref="D65" r:id="rId25" xr:uid="{1FD7B0EC-16E0-4C60-AE94-7B4720546328}"/>
+    <hyperlink ref="D30" r:id="rId26" xr:uid="{A75B96D2-F71B-42A6-87D0-363BA6BAFBD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2833,19 +3664,19 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -2853,25 +3684,25 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>138</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data Collection.xlsx
+++ b/data/Data Collection.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{8632A504-ECB9-41F3-83C2-D8FB0D9BADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6ECBEC7-1754-4487-B5A7-BC71436C19A6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="2" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="productCollectionList" sheetId="1" r:id="rId1"/>
@@ -1279,6 +1279,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2037,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8FFCC8-FB4D-413C-81EB-800110419A65}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
@@ -3659,9 +3663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F947BAD6-2752-4AC0-BEE3-804E058AF41F}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3707,5 +3711,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Data Collection.xlsx
+++ b/data/Data Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f943686c21a634a0/Desktop/Data Mining/CSCI-Final-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{8632A504-ECB9-41F3-83C2-D8FB0D9BADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6ECBEC7-1754-4487-B5A7-BC71436C19A6}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{8632A504-ECB9-41F3-83C2-D8FB0D9BADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046BAEDD-6383-4A0A-856D-8AC3943C8893}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="2" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="productCollectionList" sheetId="1" r:id="rId1"/>
@@ -2041,9 +2041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8FFCC8-FB4D-413C-81EB-800110419A65}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2825,7 +2825,7 @@
       <c r="C44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2860,7 +2860,7 @@
       <c r="C45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2895,7 +2895,7 @@
       <c r="C46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3654,6 +3654,19 @@
     <hyperlink ref="D66" r:id="rId24" xr:uid="{DAC37E6D-5373-4CEA-BF1C-8C46D88AC0DF}"/>
     <hyperlink ref="D65" r:id="rId25" xr:uid="{1FD7B0EC-16E0-4C60-AE94-7B4720546328}"/>
     <hyperlink ref="D30" r:id="rId26" xr:uid="{A75B96D2-F71B-42A6-87D0-363BA6BAFBD9}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{3D992E38-9A03-4F7D-AA92-E41A6651AC00}"/>
+    <hyperlink ref="D36" r:id="rId28" xr:uid="{834ED2DB-970C-48B6-9EFE-1A252515B6BB}"/>
+    <hyperlink ref="D37" r:id="rId29" xr:uid="{2C4D47A3-7193-44BA-A21E-EAED5940DF85}"/>
+    <hyperlink ref="D38" r:id="rId30" xr:uid="{DE78018A-E9A9-450A-BD0F-9A6470DBC4EC}"/>
+    <hyperlink ref="D39" r:id="rId31" xr:uid="{DED299E5-1F17-4BCE-A24B-3FC1E6C9521F}"/>
+    <hyperlink ref="D40" r:id="rId32" xr:uid="{8CAF0902-B308-4A95-86E8-8CBF4C16620A}"/>
+    <hyperlink ref="D41" r:id="rId33" xr:uid="{E4E1B484-946E-44B0-90BD-761798C9300B}"/>
+    <hyperlink ref="D42" r:id="rId34" xr:uid="{E87D0DF3-770B-4C30-8C47-5ABA6D448AAD}"/>
+    <hyperlink ref="D43" r:id="rId35" xr:uid="{C01CBC0F-8664-4EBD-A7B6-7AF4EFD4C0EB}"/>
+    <hyperlink ref="D44" r:id="rId36" xr:uid="{4D9B0924-88D7-4380-AB8C-8AD72CC3BFA3}"/>
+    <hyperlink ref="D45" r:id="rId37" xr:uid="{2BBC497B-150C-44DA-89F6-23DCA175AEBE}"/>
+    <hyperlink ref="D46" r:id="rId38" xr:uid="{3385D83A-585B-41CE-94AB-81E89CE78CD0}"/>
+    <hyperlink ref="D56" r:id="rId39" xr:uid="{FBBFB39F-8CF7-469F-A66B-E965EF7CAC20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3663,7 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F947BAD6-2752-4AC0-BEE3-804E058AF41F}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>

--- a/data/Data Collection.xlsx
+++ b/data/Data Collection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f943686c21a634a0/Desktop/Data Mining/CSCI-Final-Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CU Boulder - Data Science\Spring 2024\Data Mining\Data_mining_project\CSCI-Final-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{8632A504-ECB9-41F3-83C2-D8FB0D9BADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046BAEDD-6383-4A0A-856D-8AC3943C8893}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CDE0A2-F8B9-4E6C-9F1C-8B4E1FA58B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{EFA0F3B4-3249-4998-8A76-0DCAF9FCE7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="productCollectionList" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="284">
   <si>
     <t>id</t>
   </si>
@@ -510,9 +510,6 @@
     <t>https://www.bestbuy.com/site/star-wars-jedi-survivor-standard-edition-playstation-5/6528657.p?skuId=6528657</t>
   </si>
   <si>
-    <t>https://www.bestbuy.com/site/mario-kart-8-deluxe-nintendo-switch/5723304.p?skuId=5723304</t>
-  </si>
-  <si>
     <t>https://www.bestbuy.com/site/igloo-imx-24-quart-cooler-gray/6523836.p?skuId=6523836</t>
   </si>
   <si>
@@ -525,99 +522,24 @@
     <t>Hogwarts Legacy Standard Edition - Xbox Series X</t>
   </si>
   <si>
-    <t>Edition Standard Edition
-ESRB Rating T (Teen 13+)
-Compatible Platform(s) Xbox Series X
-Software Format Physical</t>
-  </si>
-  <si>
     <t>Star Wars Jedi: Survivor Standard Edition - PlayStation 5</t>
   </si>
   <si>
-    <t>Edition Standard Edition
-ESRB Rating T (Teen 13+)
-ESRB Descriptors Mild language, Violence
-Compatible Platform(s) PlayStation 5
-Software Format Physical</t>
-  </si>
-  <si>
-    <t>Mario Kart 8 Deluxe - Nintendo Switch</t>
-  </si>
-  <si>
-    <t>ESRB Rating E (Everyone)
-ESRB Descriptors Comic mischief
-Compatible Platform(s) Nintendo Switch
-Software Format Physical</t>
-  </si>
-  <si>
     <t>Ninja - Woodfire Pizza Oven, 8-in-1 Outdoor Oven, 5 Pizza Settings, 700°F, Smoker, Woodfire Technology, Electric - Terracotta Red</t>
   </si>
   <si>
-    <t>Product Name Woodfire Pizza Oven, 8-in-1 Outdoor Oven, 5 Pizza Settings, 700°F, Smoker, Woodfire Technology, Electric
-Brand Ninja
-Model Number OO101
-Color Terracotta Red
-Color Category Red</t>
-  </si>
-  <si>
     <t>Igloo - IMX 24 Quart Cooler - Gray</t>
   </si>
   <si>
-    <t>Hard/Soft Case Hardside
-Capacity 24 quarts
-Product Type Hardside Cooler
-BPA-Free Yes</t>
-  </si>
-  <si>
     <t>Dyson - Ball Animal 3 Extra Upright Vacuum with 5 accessories - Copper/Silver</t>
   </si>
   <si>
-    <t>Pet
-Yes
-Cleaning Path Width
-11.02 inches
-Vacuum Type
-Upright vacuums
-Bin Capacity
-0.55 gallons
-Product Weight
-17.33 pounds
-Brush Roll Shut-Off
-Yes
-Bagless
-Yes
-Compatible Floor Type
-All floors
-Amperage
-11.67 amperes
-Corded/Cordless
-Corded
-Carpet Height Adjustments Yes
-Wattage 1400 watts
-Wet And Dry Usage No
-Cord Length 35 feet
-Filter Type Lifetime
-Hypoallergenic Yes
-Multi Surface Yes
-Washable Filter Yes
-Attachments Included Combination tool, Stair tool, Tangle-free turbine tool, groom tool, Tool holder</t>
-  </si>
-  <si>
     <t>https://www.bestbuy.com/site/ge-1-4-cu-ft-mid-size-microwave-black/3180025.p?skuId=3180025</t>
   </si>
   <si>
     <t>GE - 1.4 Cu. Ft. Mid-Size Microwave - Black</t>
   </si>
   <si>
-    <t>Product Height
-12 1/2 inches
-Product Width 21 7/8 inches
-Product Depth 16 3/8 inches
-App Compatible No
-Microwave Type Countertop
-Turntable Diameter 12 5/8 inches</t>
-  </si>
-  <si>
     <t>https://www.bestbuy.com/site/lg-65-class-c3-series-oled-4k-uhd-smart-webos-tv/6535929.p?skuId=6535929</t>
   </si>
   <si>
@@ -630,26 +552,12 @@
     <t>Razor - MX350 Dirt Rocket eBike w/7 miles Max Operating Range &amp; 14 mph Max Speed - Small - Blue</t>
   </si>
   <si>
-    <t>Product Weight 62.7 pounds
-Battery Charge Time 12 hours
-Battery Voltage 12 volts
-Maximum Operating Range 7 miles
-Maximum Speed 14 miles per hour
-Electric Bike Classification Class 3</t>
-  </si>
-  <si>
     <t>https://www.bestbuy.com/site/hamilton-beach-classic-4-slice-toaster-with-sure-toast-technology-stainless-steel/6518125.p?skuId=6518125</t>
   </si>
   <si>
     <t>Hamilton Beach - Classic 4 Slice Toaster with Sure-Toast Technology - Stainless Steel</t>
   </si>
   <si>
-    <t>Function(s)
-Bagel, Defrost, Toast, Pastry, Waffle
-Number of Toasting Slots
-4</t>
-  </si>
-  <si>
     <t>https://www.bestbuy.com/site/turbotax-deluxe-2023-federal-e-file-state-mac-os-windows-digital/6560825.p?skuId=6560825</t>
   </si>
   <si>
@@ -662,62 +570,22 @@
     <t>Microsoft - 365 Family (Up to 6 People) (12-Month Subscription) - Activation Required - Windows, Mac OS, Apple iOS, Android [Digital]</t>
   </si>
   <si>
-    <t>Number of Users 1
-Number of Licenses 1
-Operating System Compatibility Mac OS, Windows
-Software Format Digital</t>
-  </si>
-  <si>
-    <t>Number of Users 6
-Number of Devices 5
-Number of Licenses 1
-Operating System Compatibility Windows, Mac OS, Apple iOS, Android
-Software Format Digital
-Subscription Period 1 Year</t>
-  </si>
-  <si>
-    <t>Wireless Yes
-Connectivity Technology Bluetooth
-Rechargeable Yes
-Battery Life 12 hours
-USB Device Charging Yes</t>
-  </si>
-  <si>
     <t>https://www.bestbuy.com/site/hp-deskjet-2755e-wireless-inkjet-printer-with-3-months-of-instant-ink-included-with-hp-white/6454282.p?skuId=6454282</t>
   </si>
   <si>
     <t>HP - DeskJet 2755e Wireless Inkjet Printer with 3 months of Instant Ink Included with HP+ - White</t>
   </si>
   <si>
-    <t>Mobile Device Printing Yes
-Networking Wireless
-ENERGY STAR Certified Yes
-Printer Type Printer, Scanner, Copier
-ISO Color Print Speed 5.5 pages per minute
-ISO Mono Print Speed 7.5 pages per minute</t>
-  </si>
-  <si>
     <t>https://www.bestbuy.com/site/samsung-galaxy-s22-ultra-128gb-phantom-black-verizon/6494471.p?skuId=6494471</t>
   </si>
   <si>
     <t>Samsung - Galaxy S22 Ultra 128GB - Phantom Black (Verizon)</t>
   </si>
   <si>
-    <t>Screen Size 6.8 inches
-Front-Facing Camera 40 megapixels
-Rear-Facing Camera 108 megapixels
-Series Galaxy S22</t>
-  </si>
-  <si>
     <t>https://www.bestbuy.com/site/apple-iphone-14-128gb-unlocked-midnight/6507555.p?skuId=6507555</t>
   </si>
   <si>
     <t>Apple - iPhone 14 128GB (Unlocked) - Midnight</t>
-  </si>
-  <si>
-    <t>Screen Size 6.1 inches
-Front-Facing Camera 12 megapixels
-Rear-Facing Camera 12 megapixels</t>
   </si>
   <si>
     <t>Apple iPhone 14, 256GB, Blue - Unlocked (Renewed Premium)</t>
@@ -1180,6 +1048,1652 @@
 Leg Length	4 Inches
 Type	Sofa Chaise
 Color	Blue/Gray</t>
+  </si>
+  <si>
+    <t>iPhone 14. With the most impressive dual-camera system on iPhone. Capture stunning photos in low light and bright light. Get peace of mind with groundbreaking safety features. 
+6.1-inch Super Retina XDR display138
+Advanced camera system for better photos in any light
+Cinematic mode now in 4K Dolby Vision up to 30 fps
+Action mode for smooth, steady, handheld videos
+Vital safety features—Emergency SOS via satellite² and Crash Detection
+All-day battery life and up to 20 hours of video playback³
+A15 Bionic chip with 5-core GPU for lightning-fast performance. Superfast 5G cellular⁴
+Industry-leading durability features with Ceramic Shield and water resistance⁵
+iOS 16 offers even more ways to personalize, communicate, and share⁶
+¹The display has rounded corners. When measured as a standard rectangular shape, the screen is 6.06 inches diagonally. Actual viewable area is less.
+²Emergency SOS via satellite is available in November 2022. Service is included for free for two years with the activation of any iPhone 14 model.
+Connection and response times vary based on location, site conditions, and other factors. See apple.com/iphone-14 or apple.com/iphone-14-pro for more information.
+³Battery life varies by use and configuration; see apple.com/batteries for more information.
+⁴Data plan required. 5G is available in select markets and through select carriers. Speeds vary based on site conditions and carrier. For details on 5G support, contact your carrier and see apple.com/iphone/cellular.
+⁵iPhone 14 is splash, water, and dust resistant and was tested under controlled laboratory conditions with a rating of IP68 under IEC standard 60529 (maximum depth of 6 meters up to 30 minutes).
+Splash, water, and dust resistance are not permanent conditions. Resistance might decrease as a result of normal wear. Do not attempt to charge a wet iPhone; refer to the user guide for cleaning and drying instructions. Liquid damage not covered under warranty.
+⁶Some features may not be available for all countries or all areas.
+Accessories are sold separately.</t>
+  </si>
+  <si>
+    <t>Key Specs
+Screen Size
+6.1 inches
+Front-Facing Camera
+12 megapixels
+Rear-Facing Camera
+12 megapixels
+General
+Product Name
+iPhone 14 128GB (Unlocked)
+Brand
+Apple
+Model Number
+MPUH3LL/A
+Color
+Midnight
+Color Category
+Black
+Display
+Screen Size
+6.1 inches
+Screen Resolution
+2532 x 1170
+Screen Type
+Super Retina XDR display
+Camera
+Integrated Camera
+Front, Rear
+Front-Facing Camera
+12 megapixels
+Rear-Facing Camera
+12 megapixels
+Video Recording Resolution(s) and Frame Rate(s)
+60 fps frame rate
+Network
+Carrier
+Unlocked
+Carrier Compatibility
+AT&amp;T, Google Fi, Verizon, Visible, T-Mobile
+Network Connectivity
+5G
+Unlocked
+Yes
+Connectivity
+Headphone Jack
+No
+Wireless Connectivity
+Bluetooth, Wi-Fi
+Wireless Networking Standard
+Wi-Fi 6
+Wireless Standard
+AX
+Compatibility
+Charging Interface(s)
+USB Type C
+Voice Assistant Built-in
+Siri
+Works With
+Siri
+Stylus Dock
+None
+Stylus Included
+No
+Power
+Wireless Charging
+Yes
+Wireless Charging Standard
+MagSafe, Qi
+Battery Chemistry
+Lithium-ion
+Features
+Model Family
+Apple iPhone 14
+Usage Time(s)
+Video playback: Up to 23 hours; Video playback (streamed): Up to 20 hours; Audio playback: Up to 75 hours; Fast-charge capable: Up to 50% charge in around 30 minutes with 20W adapter or higher (available separately)
+Sensors
+Accelerometer, Gyro sensor, Face ID, Barometer, Proximity sensor, Ambient light sensor
+Mobile Payment Service Supported
+Apple Pay
+Protective Qualities
+Dust resistant, Water resistant
+Maximum Depth Of Water Resistance
+19.7 feet
+Ingress Protection (IP) Rating
+IP68
+Pre-Installed Apps
+Messages, FaceTime
+Built-in Storage
+128 gigabytes
+Performance
+Operating System
+Apple iOS 16
+Processor Brand
+Apple
+Processor Model
+A15 Bionic chip, 6-core CPU with 2 performance and 4 efficiency cores, 5-core GPU, 16-core Neural Engine
+Dimensions
+Product Height 5.78 inches
+Product Width 2.82 inches
+Product Depth 0.31 inches
+Product Weight 6.07 ounces
+Storage Internal Memory 128 gigabytes
+Warranty Manufacturer's Warranty - Parts 1 year
+Manufacturer's Warranty - Labor 1 year
+Other UPC 194253408284</t>
+  </si>
+  <si>
+    <t>The power of our fastest chip ever, long lasting battery, and sophisticated AI enables revolutionary night-time video that’s as clear-as-day. And, for the first time, S Pen with its increased super-powers has been embedded in Galaxy S22 Ultra’s beautifully sleek design. Today, Galaxy S22 Ultra sets an epic standard of smartphone experience. 
+See less...
+Light up your life with 8K video
+Shoot videos that rival how epic your life is with stunning 8K recording.
+So smooth, you won’t believe you shot it
+Video you capture is effortlessly smooth, thanks to Auto Focus Video Stabilization on Galaxy S22 Ultra.¹
+Low light? No problem.
+Capture the night with crystal-clear, bright pics and videos, no matter the lighting with Night Mode.
+Bring out the beauty with every pic
+Put all your favorite details on display. Portrait Mode auto- detects and adjusts to what you want front and center, making all your photos worthy of a frame.
+Highest resolution. Premium clarity.
+Capture premium detail with 108MP resolution — the highest available on a smartphone.
+Your favorite content. Our brightest screen.
+Your favorite content will look even more epic on our brightest display ever with Vision Booster.
+Color that adapts to your day
+Streaming on the go, working from your patio or binge-watching late into the night? The Galaxy S22 Ultra adaptive screen automatically optimizes color and brightness, outdoors and indoors.
+A battery for a day and into the next
+Power every scroll, click, tap and stream all day long and then some with an intelligent, long-lasting battery.²
+Super-fast charging that won’t hold you back
+Dive back into action at a moment’s notice with 45W Super-Fast Charging.³
+Write, sketch, edit and more
+New phone. New S Pen. Now you can unleash your creativity on Galaxy S22 Ultra with an embedded S Pen.
+A new standard of premium
+Expertly engineered to outlast your day with class. Finally, a phone that meets your standards.
+Don’t just stream it. Share it.
+Watch viral YouTube videos and content together with your friends, from anywhere.⁴
+Shoot for the moon
+Experience out-of-this-world zoom power with 100x Space Zoom.
+Snap a ton with just one take
+Snap perfect, profile-worthy photos and viral videos at the same time in one click.⁵
+Multi-cam recording activated
+Slide into the director’s chair and create share-ready videos on the spot with multi-cam recording and automatic pro-style effects.
+Save your heart out
+Your life is full, but your storage shouldn’t be. Get the space you need and then some with 128GB, 256GB and 512GB memory options for Galaxy S22 Ultra.
+Processing speed that keeps up with you
+Snap, switch, stream and surf with the speed of our fastest processor ever.
+Serious security
+Use your phone with confidence — Galaxy S22 Ultra helps keep your private data protected with multilayered security.⁶
+Phone and PC, beautifully in sync
+Link to Windows gives you the power to sync your phone with your PC, so you can work from your phone without even picking it up.⁷
+Powerful apart. Stronger together.
+Get more out of the activities you love the most when you connect Galaxy S22 Ultra with Galaxy Buds and Galaxy Watch.⁸
+¹Supports Full HD video with up to 60 fps.
+²Based on average battery life under typical usage conditions. Average expected performance based on typical use. Actual battery life depends on factors such as network, features selected, frequency of calls, and voice, data, and other application usage patterns.
+³Wall charger sold separately; use only Samsung-approved chargers and cables. To avoid injury or damage to your device, do not use incompatible, worn or damaged batteries, chargers or cables. Supports 25W charging. ⁴Requires all participants have Galaxy S22 Ultra devices with Android 12 OS.
+⁵Single Take captures images and video for up to 15 seconds. ⁶To use Private Share features, both the sender and receiver must have a Galaxy mobile device with Android 9 or later and the Private Share app.
+⁷Link to Windows requires the Your Phone app (free download), a Microsoft account and Windows 10. Some mobile apps may have security features that prevent the mobile app from being viewed on PC. ⁸Galaxy Watch, Buds, &amp; Galaxy S22 Ultra sold separately.
+What's Included
+USB-C Cable</t>
+  </si>
+  <si>
+    <t>Key Specs Screen Size 6.8 inches
+Front-Facing Camera 40 megapixels
+Rear-Facing Camera 108 megapixels
+Series Galaxy S22
+General
+Product Name Galaxy S22 Ultra 128GB
+Brand Samsung
+Model Number SM-S908UZKAVZW
+Series Galaxy S22
+Color Phantom Black
+Color Category Black
+Display Screen Size 6.8 inches
+Screen Resolution 1440 x 3088
+Screen Type AMOLED
+Foldable Screen No
+Camera Integrated Camera
+Front, Rear Front-Facing Camera 40 megapixels
+Rear-Facing Camera 108 megapixels
+Video Recording Resolution(s) and Frame Rate(s) 24 fps frame rate 7680 x 4320 (8K) recording resolution
+Network Carrier Verizon
+Network Connectivity 4G, 4G LTE, 5G
+Unlocked No
+Mobile Hotspot Capability Yes
+Connectivity Headphone Jack
+No Wireless Connectivity
+Bluetooth, Wi-Fi, NFC Wireless Networking Standard Wi-Fi 6
+Wireless Standard AX
+Power Battery Capacity
+5000 milliampere hours Wireless Charging Yes
+Wireless Charging Standard Qi
+Fast Charging Capability
+Wired, Wireless
+Fast Charging Technology
+Power Delivery 3.0
+Battery Chemistry
+Lithium-ion
+Compatibility
+Charging Interface(s)
+USB Type C
+Voice Assistant Built-in
+Bixby, Google Assistant
+SIM Card Size
+Nano SIM
+SIM Card Slots
+Single SIM
+Stylus Dock
+Charging
+Stylus Included
+Yes
+Features
+Model Family
+Samsung Galaxy S22 Ultra
+Sensors
+Accelerometer, Barometer, Fingerprint sensor, Gyro sensor, Proximity sensor, Geomagnetic sensor, Ambient light sensor
+GPS Enabled
+Yes
+Mobile Payment Service Supported
+Samsung Pay
+Protective Qualities
+Dust resistant, Water resistant
+Maximum Depth Of Water Resistance
+5 feet
+Ingress Protection (IP) Rating
+IP68
+Built-in Storage
+128 gigabytes
+Performance
+Operating System
+Android 12
+Processor Brand
+Qualcomm
+Processor Model
+Qualcomm Snapdragon 8 Gen 1
+Processor Speed
+2.99 gigahertz
+Phone Memory (RAM)
+8 gigabytes
+Dimensions Product Height 6.43 inches
+Product Width 3.07 inches
+Product Depth 0.35 inches
+Product Weight 8.04 ounces
+Storage Media Card Slot None
+Internal Memory 128 gigabytes
+Warranty Manufacturer's Warranty - Parts 1 year
+Manufacturer's Warranty - Labor 1 year
+Other UPC 887276597980</t>
+  </si>
+  <si>
+    <t>The HP DeskJet 2755e has the essential features you need to print basic color documents like recipes and forms. Print, copy and scan with ease, print from your phone and get easy setup. Includes the optional HP+ Smart Printing System that keeps itself up to date and ready to print from virtually anywhere at any time—at no additional cost. 
+See less...
+HP
+Best for basic printing
+Print basic color documents like recipes, forms and travel documents
+Key features
+Print, copy and scan in color, plus mobile and wireless printing
+HP+ Smart Printing System
+The optional HP+ system enables your printer to think ahead so it's more secure, more productive and ready when you are. Requires an HP account, internet connection and use of only Original HP Ink for the life of the printer.
+Easy setup
+Get started fast on any device with the HP Smart app that guides you step by step
+HP Smart app
+Simple setup that guides you through each step, using HP Smart app. Print, scan and copy everyday documents from your phone—from anywhere. Get advanced features with HP+ in the Smart app including mobile fax and advanced scanning features such as multi-item recognition.
+Worry-free wireless
+Get better range and more reliable connections using dual-band Wi-Fi with self-reset
+3 months of Instant Ink included with HP+
+Print up to 700 pages a month and get ink delivered only when you need it. After 3 months, monthly fee applies unless cancelled, and you'll save up to 50% on ink.
+What's Included
+HP DeskJet 2755e All-in-One Printer
+HP 67 Setup Black Cartridge
+HP 67 Setup Tri-Color Cartridge
+Regulatory flyer
+Setup guide
+Reference guide
+Power cord
+Energy Ratings
+Energy Star logo
+ENERGY STAR Certified
+Manuals &amp; Guides
+Product Datasheet/Brochure
+English</t>
+  </si>
+  <si>
+    <t>Key Specs
+Mobile Device Printing
+Yes
+Networking
+Wireless
+ENERGY STAR Certified
+Yes
+Printer Type
+Printer, Scanner, Copier
+ISO Color Print Speed
+5.5 pages per minute
+ISO Mono Print Speed
+7.5 pages per minute
+Output Tray Capacity
+25
+Touch Screen
+No
+General
+Product Name
+DeskJet 2755e Wireless Inkjet Printer with 3 months of Instant Ink Included with HP+
+Brand
+HP
+Display Screen
+Yes
+Display Screen Size
+1 inches
+Model Number
+DeskJet 2755e
+Color
+White
+Color Category
+White
+Connectivity
+Printer Connectivity
+Wi-Fi, USB 2.0
+Minimum System Requirements
+PC: Windows 10, 7: 32-bit or 64-bit, 2 GB available hard disk space, Internet connection, Internet Explorer.; Mac: macOS v10.14 Mojave, macOS v10.15 Catalina, macOS v11 Big Sur; 2 GB HD; Internet required
+Dimension
+Product Height
+6.06 inches
+Product Width
+16.7 inches
+Product Depth
+11.97 inches
+Product Weight
+7.55 pounds
+Feature
+Portable
+No
+Automatic Document Feeder
+No
+Photo Printing
+Yes
+Wide Format Scanning
+No
+Monochromatic/Color
+Color
+Automatic Reduction/Enlargement
+Yes
+Automatic Two-Sided Printing
+No
+Tray Capacity
+60
+Duty Cycle
+Up to 1,000
+Regulatory &amp; Listing
+EPEAT Qualified
+Yes
+EPEAT Level
+Silver
+Scanner Info
+Scanner Type
+Flatbed
+Ink
+Compatible Cartridges
+HP 67 Black Original Ink Cartridge (~120 pages yield) 3YM56AN, HP 67XL Black High Yield Original Ink Cartridge (~240 pages yield) 3YM57AN, HP 67XXL Black Extra High-Yield Original Ink Cartridge (~400 pages yield) 3YM59AN, HP 67 Tri-Color Original Ink Cartridge (~100 pages yield) 3YM55AN, HP 67XL Tri-Color High-Yield Original Ink Cartridge (~200 pages yield) 3YM58AN, HP 67XXL Tri-Color Extra High-Yield Original Ink Cartridge (~330 pages yield) 6ZA16AN
+Ink Subscription Service Available
+Yes
+Number Of Cartridges Required
+2
+Number of Black Cartridges Included
+1
+Number of Color Cartridges Included
+1
+Number of Ink Bottles/Tanks Required
+0
+Number of Ink Bottles/Tanks Included
+0
+Memory
+Internal Memory
+Yes
+Memory Card Slot
+No
+Paper Info
+Supported Paper Sizes
+Letter; legal; 4 x 6 in; 5 x 7 in; 8 x 10 in; No. 10 envelopes
+Paper Feeder
+Top loader
+Paper Handling
+Input Capacities: Up to 60 sheets Standard; Up to 5 envelopes; Output Capacities: Up to 25 sheets Standard
+Performance
+First Page Out Time
+15 seconds
+Printer Resolution (Black)
+Up to 1200 x 1200
+Printer Resolution (Color)
+Up to 4800 x 1200
+Approximate Page Yield (Black)
+120
+Approximate Page Yield (Color)
+100
+Warranty
+Manufacturer's Warranty - Parts
+1 year
+Manufacturer's Warranty - Labor
+1 year
+Included
+Included Software
+HP Printer Software, available online
+Other
+UPC
+195161617966</t>
+  </si>
+  <si>
+    <t>Water-resistant design
+Meets IPX7 standards.
+Connect wirelessly from across the room
+Pair this speaker with virtually any Bluetooth-enabled device, including phones, tablets and laptops.
+Rechargeable Battery
+Enjoy up to 12 hours of extended playback on a single charge.
+What's Included
+JBL Flip 5 Portable Bluetooth Speaker</t>
+  </si>
+  <si>
+    <t>Wireless
+Yes
+Connectivity Technology
+Bluetooth
+Rechargeable
+Yes
+Battery Life
+12 hours
+USB Device Charging
+Yes
+General
+Product Name
+Flip 5 Portable Bluetooth Speaker
+Brand
+JBL
+Compatibility
+Universal
+Model Number
+JBLFLIP5BLKAM
+Series
+JBL Portable Bluetooth Speakers Collection
+Color
+Black
+Color Category
+Black
+Audio
+Number Of Speakers
+1
+Connectivity
+Wireless
+Yes
+Connectivity Technology
+Bluetooth
+Power
+Rechargeable
+Yes
+Battery Life
+12 hours
+Battery Type
+Lithium-ion
+USB Device Charging
+Yes
+Dimension
+Product Height
+2.91 inches
+Product Width
+7.12 inches
+Product Depth
+2.71 inches
+Product Weight
+1.2 pounds
+Warranty
+Manufacturer's Warranty - Parts
+1 year
+Manufacturer's Warranty - Labor
+1 year
+Other
+UPC
+050036361088</t>
+  </si>
+  <si>
+    <t>Premium Office apps included
+Get premium versions of your favorite Office apps, including Word, Excel, PowerPoint, and Outlook to create, collaborate, edit and share your best work with anyone, anywhere in real-time. Clipchamp video editor with premium filters &amp; effects.
+1TB of cloud storage included
+Microsoft 365 includes 1TB of OneDrive cloud storage for yourself and each person you share with, so everyone can easily access, edit, and share their files and photos across all devices.
+OneDrive Personal Vault
+Personal Vault is a protected folder within OneDrive that can only be accessed with a second step of identity verification. It gives you an added layer of protection for your most important files like your passport, driver's license, or insurance information.
+Applications are always up-to-date
+With a Microsoft 365 subscription you get innovative, new features and updates as soon as they are released, so you're always working with the latest and the greatest.
+Auto-Renew Subscription
+Automatically renewing Microsoft 365 Family subscription will renew each year for $99.99 (or then-current price) unless canceled before yearly renewal date by calling 1-888-BestBuy.
+Microsoft support
+Microsoft 365 has your back with readily available technical support through chat or phone.
+What's Included
+Microsoft 365 Family (Up to 6 Users) (12-Month Subscription-Auto Renew) - Activation Required [Digital]</t>
+  </si>
+  <si>
+    <t>Key Specs
+Number of Users
+6
+Number of Devices
+5
+Number of Licenses
+1
+Operating System Compatibility
+Windows, Mac OS, Apple iOS, Android
+Software Format
+Digital
+Subscription Period
+1 Year
+General
+Product Name
+365 Family (Up to 6 People) (12-Month Subscription) - Activation Required
+Brand
+Microsoft
+Publisher
+Microsoft
+Model Number
+AAA-04974
+Color
+Auto Renewal
+Color Category
+Multi
+Features
+Included Mobile App(s)
+Yes
+Included Application(s)
+Access, Excel, OneNote, Outlook, PowerPoint, Publisher, Word
+Designated Use
+Home
+Cloud Storage Included
+1000 gigabytes
+In-Software Purchases
+Subscriptions
+Language(s)
+English
+Cloud Based Software
+Yes
+Purchase rights
+Number of Users
+6
+Number of Devices
+5
+Number of Licenses
+1
+Purchase Rights
+Install up to 5 Devices/Person
+Compatibility
+Operating System Compatibility
+Windows, Mac OS, Apple iOS, Android
+Software Format
+Digital
+Number Of Discs
+0
+Requirements
+System Requirements
+Windows 10,1.6 GHz, 2-core processor,4 GB, 2 GB (32bit) RAM,Mac OS Extended or APFS
+Subscription
+Yes
+Subscription Period
+1 Year
+Digital Download Type
+Productivity software download
+Download Requirements
+Internet connection
+Hard Drive Space Required
+10 gigabytes
+Warranty
+Manufacturer's Warranty - Parts
+None
+Manufacturer's Warranty - Labor
+None
+Other
+UPC
+400062580388</t>
+  </si>
+  <si>
+    <t>Recommended if you own a home, have charitable donations, high medical expenses and need to file both Federal and State Tax Returns.
+Includes 5 Federal e-files and 1 State via download ($45 value). State e-file sold separately. Free U.S.-based product support (hours may vary).
+Get your taxes done right and your maximum refund.
+Maximizes 350+ deductions and credits.
+Up-to-date with the latest tax laws.
+Imports prior year data from TurboTax and other tax software.
+Easily imports W-2s, investment and mortgage information from participating companies.
+Audit Risk Meter™ checks your return for audit triggers.
+Double-checks your tax return so you can file with complete confidence.</t>
+  </si>
+  <si>
+    <t>Key Specs
+Number of Users
+1
+Number of Licenses
+1
+Operating System Compatibility
+Mac OS, Windows
+Software Format
+Digital
+General
+Product Name
+Deluxe 2023 Federal + E-file &amp; State
+Brand
+TurboTax
+Publisher
+TurboTax
+Model Number
+INT940800V131
+Purchase rights
+Number of Users
+1
+Number of Licenses
+1
+Compatibility
+Operating System Compatibility
+Mac OS, Windows
+Software Format
+Digital
+Requirements
+System Requirements
+Windows 10 or later, or macOS Monterey 12 or later (macOS Big Sur 11 not supported), 2GB or more RAM recommended, 1GB Disk Space
+Digital Download Type
+Productivity software download
+Hard Drive Space Required
+1 gigabytes
+Warranty
+Manufacturer's Warranty - Parts
+Not applicable
+Manufacturer's Warranty - Labor
+Not applicable
+Other
+UPC
+028287608979</t>
+  </si>
+  <si>
+    <t>Evenly toasts both sides of single slice
+With the Sure-Toast One Slice toast feature on the 4 slice toaster, you get perfectly toasted bread, with balanced color and texture on both sides every time you toast. Just press the One Slice button.
+Easily retrieve smaller breads
+A convenient feature you won't find on all bread toasters, Auto Boost automatically lifts smaller breads like English muffins and gluten-free bread slices so they're easier to retrieve after toasting.
+Food that looks as good as it tastes
+Even toasting improves color and texture of toast, English muffin, and sandwiches made with toasted breads.
+Perfectly toasts bagels
+The bagel function toasts the cut side of the bagel and warms the outside for a great bagel-eating experience. You get crunchy, toasted bread on one side and warm, soft bread on the other.
+Give frozen foods extra time to cook
+Use the defrost setting for optimal cook time and flavor when toasting frozen breads and waffles. Just press one button to defrosts and toast.</t>
+  </si>
+  <si>
+    <t>Key Specs
+Function(s)
+Bagel, Defrost, Toast, Pastry, Waffle
+Number of Toasting Slots
+4
+General
+Product Name
+Classic 4 Slice Toaster with Sure-Toast Technology
+Brand
+Hamilton Beach
+Model Number
+24782
+Color
+Stainless Steel
+Color Category
+Silver
+Dimension
+Product Height
+7.6 inches
+Product Width
+11.1 inches
+Product Depth
+11 inches
+Product Weight
+4.11 pounds
+Material
+Non-Stick Interior
+No
+Functions
+Function(s)
+Bagel, Defrost, Toast, Pastry, Waffle
+Features
+Programmable
+Yes
+Control Type
+Slider, Button, Dial
+Lever Type
+Manual
+Toaster Slot Type
+Extra Wide
+Performance
+Number of Toasting Slots
+4
+Warranty
+Manufacturer's Warranty - Parts
+One(1) Year Warranty
+Manufacturer's Warranty - Labor
+One(1) Year Warranty
+Other
+UPC
+040094247820</t>
+  </si>
+  <si>
+    <t>Explore natural trails with this Razor MX350 Dirt Rocket electric motorbike. Top speeds of up to 14mph provide a thrilling ride, while the steel frame stands up to heavy handling. This Razor MX350 Dirt Rocket electric motorbike features adjustable rise handlebars with soft rubber grips for comfort and a 24-volt battery that supports up to 30 minutes of continuous use. Ride Responsibly: The purchaser and rider of this product are responsible for knowing and obeying all state and local regulations regarding the use of this product. It is highly encouraged that you read and follow the product instructions including all safety precautions and use protective gear. 
+See less...
+From our expanded online assortment; not available in all Best Buy stores
+Dirt bike design
+With a scaled-down format designed to carry riders up to 140 lbs.
+Chain-driven motor
+For quiet, powerful operation.
+Reaches speeds up to 14 mph
+For fast rides (depends on rider weight).
+12" pneumatic knobby tires
+For enhanced power transfer.
+Rise handlebars
+For a smooth and comfortable ride.
+Retractable kickstand
+For a neat and stylish appearance when not in use.
+Assembly
+Minimal assembly required
+Disclaimer
+The purchaser and rider of this bike are responsible for knowing and obeying all local, state and federal regulations regarding the riding and use of this bike.
+UL 2272 Compliant
+Tested and Certified to UL 2272 Safety Standard
+What's Included
+Razor Dirt Rocket MX350 Electric Bike
+Battery charger and tools
+Owner's manual</t>
+  </si>
+  <si>
+    <t>Key Specs
+Product Weight
+62.7 pounds
+Battery Charge Time
+12 hours
+Battery Voltage
+12 volts
+Maximum Operating Range
+7 miles
+Maximum Speed
+14 miles per hour
+Electric Bike Classification
+Class 3
+Bicycle Type
+Childrens bike
+Color
+Blue
+General
+Product Name
+MX350 Dirt Rocket eBike w/7 miles Max Operating Range &amp; 14 mph Max Speed
+Brand
+Razor
+Electric Bike Classification
+Class 3
+Bicycle Type
+Childrens bike
+Bike Style
+Electric bikes
+Recommended Minimum Age
+13 years
+Assembly Required
+Yes
+Model Number
+15128040/15128090
+Color
+Blue
+Color Category
+Blue
+Dimension
+Product Width
+10.5 inches
+Product Height
+24.5 inches
+Product Length
+45.75 inches
+Product Weight
+62.7 pounds
+Additional Dimension
+Maximum Weight Capacity
+140 pounds
+Bicycle Size
+Small
+Wheel Diameter
+12 inches
+Power
+Batteries Included
+Yes
+Battery Chemistry
+Lead acid
+Removable Battery
+No
+Battery Charge Time
+12 hours
+Battery Voltage
+12 volts
+Maximum Operating Range
+7 miles
+Electric Bike Motor Type
+Mid drive motor
+Maximum Speed
+14 miles per hour
+Features
+Integrated Light(s)
+No
+Basket Included
+No
+Design
+Bicycle Frame Design
+Step-over
+Brake Style
+Drum
+Handlebar Style
+Other
+Warranty
+Manufacturer's Warranty - Parts
+180 Days
+Manufacturer's Warranty - Labor
+180 Days
+Other
+UPC
+845423001346</t>
+  </si>
+  <si>
+    <t>The OLED evo C-Series is powered by the α9 AI Processor Gen6—made exclusively for LG OLED—for beautiful picture and performance. The Brightness Booster improves brightness so you get luminous picture and high contrast, even in well-lit rooms.¹ AI-assisted deep learning analyzes what you're watching to choose the best picture and sound setting for your content. 
+See less...
+LG
+It's not just OLED, it's LG OLED
+LG OLED TVs have been the world's #1 OLED brand for 10 consecutive years.² Setting the standard for innovation and excellence, LG OLED TVs bring to life brilliant color and perfect black on over 8.3 million self-lit OLED pixels.
+Brightness Booster¹
+The Brightness Booster improves brightness so you get luminous picture and high contrast, even in well-lit rooms.¹
+Ultra Slim Design
+Sleeker than ever. The LG OLED evo C3 blends into the background with an almost invisible bezel for a seamless look.
+Art Gallery
+When you're finished watching, display paintings, photos and other content to blend the LG OLED evo C3 into your space.
+α9 AI Processor Gen6
+The LG OLED evo C-series comes loaded with the α9 AI Processor Gen 6—made exclusively for LG OLED—for even better picture and performance.
+webOS 23, LG ThinQ AI and Magic Remote
+Less searching, more streaming, thanks to the next generation of AI technology. Enjoy your favorite content including fitness, sports, entertainment and more.³ Use the Magic Remote to easily find what you're looking for.
+LG Channels
+Get instant access to over 300 free channels with LG Channels.³
+FILMMAKER MODE
+Land in the center of the action with LG's FILMMAKER MODE, allowing you to see films just as the director intended.
+Dolby Vision and Dolby Atmos⁴
+Experience the magic of the big screen right from your couch. Every LG OLED comes loaded with Dolby Vision⁴ for extraordinary color, contrast and brightness, plus Dolby Atmos⁴ for wrap-around sound.
+Ultimate Gaming
+NVIDIA G-Sync, AMD FreeSync Premium and VRR to further improve gaming quality. Four HDMI 2.1 inputs allow you to plug in all the devices you need. Whether you game on consoles or on the cloud,⁵ the LG Game Dashboard and Game Optimizer put all the control at your fingertips.
+¹Based on LG internal testing: 55/65/77/83" LG OLED evo C3 models are brighter than non-OLED evo B3 models.
+²Source: Omdia. Unit shipments, 2013-2022. Results are not an endorsement of LG Electronics. Any reliance on these results is at the third-party's own risk. Visit https://www.omdia.com/ for more details.
+³Internet connection and subscriptions to streaming services are required; number of LG Channels subject to change.
+⁴Dolby, Dolby Atmos and the double-D symbol are registered trademarks of Dolby Laboratories.
+⁵Subscription and compatible gaming controller are required.
+What's Included
+65" Class C3 Series OLED 4K UHD Smart webOS TV
+Magic Remote
+Magic Remote batteries
+Power Cable (attached)
+Table Top Stand
+Quick Start Guide
+Energy Ratings
+Energy Guide logo
+See product EnergyGuide</t>
+  </si>
+  <si>
+    <t>Key Specs
+Display Type
+OLED
+Resolution
+4K (2160p)
+Screen Size Class
+65 inches
+High Dynamic Range (HDR)
+Yes
+High Dynamic Range Format
+Dolby Vision, HDR 10, Hybrid Log-Gamma (HLG)
+Refresh Rate
+120Hz
+Motion Enhancement Technology
+None
+OLED Technology
+OLED EVO
+Specific Manufacturer Technologies
+webOS 23, LG ThinQ AI, LG Channels, Dynamic Tone Mapping Pro, AI Sound Pro, Clear Voice Pro, Home Dashboard, LG Sound Sync
+Smart Platform
+webOS
+Featured Streaming Services
+Netflix, HBO Max, Prime Video, Disney+, Apple TV+, Hulu, Paramount+, Peacock, YouTube TV, Spotify, iHeartRadio
+Number of HDMI Inputs (Total)
+4
+TV Tuner Type
+ATSC, Clear QAM
+Works With
+Amazon Alexa, Google Assistant, Apple HomeKit
+Voice Assistant Built-in
+Amazon Alexa
+General
+Product Name
+65" Class C3 Series OLED 4K UHD Smart webOS TV
+Brand
+LG
+Model Number
+OLED65C3PUA
+Series
+OLED 4K - C3
+Model Year
+2023
+Color
+Dark Titan Silver
+Color Category
+Silver
+Dimension
+Product Height With Stand
+34.6 inches
+Product Width
+56.7 inches
+Product Depth With Stand
+9.1 inches
+Product Height Without Stand
+32.5 inches
+Product Depth Without Stand
+1.8 inches
+Product Weight With Stand
+40.8 pounds
+Product Weight Without Stand
+36.6 pounds
+Stand Width
+18.5 inches
+Stand Depth
+9.1 inches
+Adjustable Stand Width
+No
+Box Dimension
+Height
+38.18 inches
+Width
+62.99 inches
+Depth
+7.87 inches
+Display
+Display Type
+OLED
+Resolution
+4K (2160p)
+Screen Size
+64.5 inches
+Screen Size Class
+65 inches
+High Dynamic Range (HDR)
+Yes
+High Dynamic Range Format
+Dolby Vision, HDR 10, Hybrid Log-Gamma (HLG)
+Picture Quality Enhancement Technology
+Cinema HDR
+Curved Screen
+No
+Refresh Rate
+120Hz
+Motion Enhancement Technology
+None
+Maximum Contrast Ratio (Native)
+Infinite
+Closed Captioning
+Yes
+Language(s) Displayed
+English, Spanish, French
+3D Technology
+No
+OLED Technology
+OLED EVO
+Synchronization Technology
+G-SYNC Compatible (NVIDIA Adaptive Sync), FreeSync Premium (AMD Adaptive Sync)
+Feature
+Remote Control Type
+Magic, Voice control
+Specific Manufacturer Technologies
+webOS 23, LG ThinQ AI, LG Channels, Dynamic Tone Mapping Pro, AI Sound Pro, Clear Voice Pro, Home Dashboard, LG Sound Sync
+Smart Capable
+Yes
+Smart Platform
+webOS
+Featured Streaming Services
+Netflix, HBO Max, Prime Video, Disney+, Apple TV+, Hulu, Paramount+, Peacock, YouTube TV, Spotify, iHeartRadio
+Screen Mirroring
+Yes
+Screen Mirroring Technology
+Apple AirPlay 2
+Content Sharing
+Mobile to TV
+Indoor Or Outdoor Use
+Indoor
+TV/DVD Combo
+No
+Text-To-Speech
+Yes
+Video Description
+Yes
+V-Chip
+No
+TV Tuner
+Digital
+Connectivity
+Number of HDMI Inputs (Total)
+4
+Number of HDMI 2.1 Inputs
+4
+HDMI Audio Return Channel (ARC)
+Yes
+HDBaseT Receiver
+No
+Number Of USB Port(s) (Total)
+3
+Number of USB 2.0 Ports
+3
+Number of USB 3.0 Ports
+0
+Ethernet Port(s)
+Yes
+RF Antenna Input
+Yes
+Bluetooth Enabled
+Yes
+Bluetooth Version
+5.0
+Network Compatibility
+Built-in Wi-Fi, Ethernet
+Number of RS-232 Inputs
+1
+Headphone Jack
+No
+TV Tuner Type
+ATSC, Clear QAM
+Number of Digital Optical Audio Outputs
+1
+Number of Analog Audio Outputs
+0
+Number of Component Video Inputs
+0
+Number of Composite Video Inputs
+0
+Number of DVI Inputs
+0
+Number of VGA Ports
+0
+Compatibility
+VESA Wall Mount Standard
+300mm x 200mm
+Works With
+Amazon Alexa, Google Assistant, Apple HomeKit
+Voice Assistant Built-in
+Amazon Alexa
+Audio
+Built-In Speakers
+Yes
+Built-in Speaker Type
+Downward firing
+Surround Sound Supported
+Dolby Atmos, Dolby Digital
+Speaker Output
+40 watts
+Number Of Speakers
+2
+Number of Audio Channels
+2.2
+Power
+ENERGY STAR Certified
+No
+EPEAT Qualified
+No
+Estimated Annual Operating Cost
+26 United States dollars
+Estimated Annual Electricity Use
+213 kilowatt hours
+Rechargeable Battery (Remote Control)
+No
+Battery Size (Remote Control)
+AA
+Number Of Batteries Required (Remote Control)
+2
+Number of Batteries Included (Remote Control)
+2
+Battery Type (Remote Control)
+Alkaline
+Voltage
+120 volts
+Included
+Wall Mount Included
+No
+Stand Included
+Yes
+Cable(s) Included
+Power
+Warranty
+Manufacturer's Warranty - Parts
+1 year
+Manufacturer's Warranty - Labor
+1 year
+Other
+UPC
+195174050255</t>
+  </si>
+  <si>
+    <t>Heat and reheat a variety of food with this GE JES1460DSBB mid-size microwave, which features 10 power levels and 7 sensor cook buttons for rapid, efficient operation. Control lockout gives you peace of mind by preventing accidental or unsupervised use. 
+See less...
+1.4 cu. ft. capacity
+1100 Watts(IEC-705 test procedure)
+Sensor cooking controls
+Automatically adjusts time and power for delicious cooking results
+Weight and time defrost
+Simply enter the weight of the food, and the oven automatically sets the optimal defrosting time and power level or set your desired time for defrosting
+Turntable
+Rotates food throughout the cycle
+Instant On controls
+One-touch instant operation
+Control lockout
+Helps prevent accidental activation
+Timer on/off
+Minute timer helps keep you on track
+What's Included
+GE 1.4 Cu. Ft. Mid-Size Microwave
+Owner's manual</t>
+  </si>
+  <si>
+    <t>Product Height
+12 1/2 inches
+Product Width
+21 7/8 inches
+Product Depth
+16 3/8 inches
+App Compatible
+No
+Microwave Type
+Countertop
+Turntable Diameter
+12 5/8 inches
+Sensor Cook
+Yes
+Control Type
+Button
+Wattage
+1100 watts
+Color Finish
+Black
+General
+Product Name
+1.4 Cu. Ft. Mid-Size Microwave
+Brand
+GE
+Model Number
+JES1460DSBB
+Color
+Black
+Color Finish
+Black
+Dimension
+Product Height
+12 1/2 inches
+Product Width
+21 7/8 inches
+Product Depth
+16 3/8 inches
+Product Weight
+34 pounds
+Interior Microwave Cavity Dimensions
+14-3/4 x 9-7/8 x 16-1/4
+Capacity
+Capacity
+1.4 cubic feet
+Microwave Size
+Mid-size
+Connectivity
+App Compatible
+No
+Features
+Microwave Type
+Countertop
+Fingerprint Resistant
+Yes
+Timer
+Yes
+Child Lock
+Yes
+Turntable
+Yes
+Removable Turntable
+Yes
+Turntable Diameter
+12 5/8 inches
+Interior Light(s)
+No
+Compatible Trim Kit Available
+No
+Controls
+Sensor Cook
+Yes
+Control Type
+Button
+Display Type
+LED
+Number of Preset Programs
+10
+Turntable On/Off Option
+No
+Function
+Oven Cooking Modes
+Defrost
+Oven Preset Settings
+Other
+Electrical Specification
+Amperage
+13 amperes
+Voltage
+120 volts
+Wattage
+1100 watts
+Certifications Listings &amp; Approvals
+ADA Compliant
+No
+CEE Qualified
+No
+Product Safety Certifications and Standards
+UL Listed
+Chemical Disclosures
+For more information about chemicals in this product, including PFAS chemicals, visit: https://www.geappliances.com/chemical-reports. Para obtener más información sobre los productos químicos de este producto, incluidos los productos químicos PFAS, visite: https://www.geappliances.com/chemical-reports.”
+Warranty
+Manufacturer's Warranty - Parts
+1 year limited
+Manufacturer's Warranty - Labor
+1 year limited
+Other
+UPC
+084691238522</t>
+  </si>
+  <si>
+    <t>The wizarding world awaits you. Freely roam Hogwarts, Hogsmeade, the Forbidden Forest, and the surrounding Overland area.
+Learn spells, brew potions, grow plants, and tend to magical beasts along your journey. Get sorted into your house, forge relationships, and master skills to become the witch or wizard you want to be.
+Experience the wizarding world in an unexplored era to uncover a hidden truth from its past. Battle against trolls, Dark Wizards, goblins, and more as you face a dangerous villain threatening the fate of the wizarding world.</t>
+  </si>
+  <si>
+    <t>Key Specs
+Edition
+Standard Edition
+ESRB Rating
+T (Teen 13+)
+Compatible Platform(s)
+Xbox Series X
+Software Format
+Physical
+General
+Product Name
+Hogwarts Legacy
+Brand
+WB Games
+Publisher
+Warnr Bros. Games
+Game Details
+Edition
+Standard Edition
+Certifications &amp; Listings
+ESRB Rating
+T (Teen 13+)
+Compatibility
+Compatible Platform(s)
+Xbox Series X
+Software Format
+Physical
+Requirements
+Video Game Content Included
+Full game
+Other
+UPC
+883929730704</t>
+  </si>
+  <si>
+    <t>Continue Cal’s Journey
+No longer a Padawan, Cal has come into his own and grown into a powerful Jedi Knight
+Go Beyond Your Training
+The cinematic combat system returns with additional Force abilities and new lightsaber fighting styles
+Explore an Untamed Galaxy
+Discover new planets and familiar frontiers in the Star Wars galaxy, each with unique biomes, challenges, and enemies</t>
+  </si>
+  <si>
+    <t>Key Specs
+Edition
+Standard Edition
+ESRB Rating
+T (Teen 13+)
+ESRB Descriptors
+Mild language, Violence
+Compatible Platform(s)
+PlayStation 5
+Software Format
+Physical
+General
+Product Name
+Star Wars Jedi: Survivor
+Brand
+Electronic Arts
+Publisher
+Electronic Arts
+Game Details
+Edition
+Standard Edition
+Game Franchise
+Star Wars Jedi
+Game Series
+Survivor
+Certifications &amp; Listings
+ESRB Rating
+T (Teen 13+)
+ESRB Descriptors
+Mild language, Violence
+Compatibility
+Compatible Platform(s)
+PlayStation 5
+Software Format
+Physical
+Requirements
+Video Game Content Included
+Full game
+Other
+UPC
+014633744781</t>
+  </si>
+  <si>
+    <t>8-In-1 Functionality
+Do more outdoors and turn any space into an outdoor kitchen; Pizza, Max Roast, Specialty Roast, Broil, Bake, Smoker, Dehydrate and Keep Warm.
+Artisan Pizzas
+3-minute no turn, no fuss pizzas*. Choose from 5 different settings to satisfy any craving; Neapolitan, Thin Crust, Pan, New York, and Frozen. *cooked at 700F excludes preheat.
+700°F Premium Results
+Brick oven-inspired results without the hassle—charring, caramelization, blistering and crunch for premium textures and flavors.
+Feed A Crowd
+Fit up to 12-lb turkey, 9-lb pork shoulder, 12-lb prime rib dinner with veggies, 12-inch pizza, full sheet-pan meal or a standard 8x11 casserole dish.
+Smoky Flavors On Anything
+Add authentic bbq flavor to anything you make with just 1/2 cup of pellets at any temperature up to 700°F with Ninja Woodfire Technology.
+Complete Temperature Control
+No flame, full control. Electric heat unlocks a wide range of temps from 105-700°F. Expand your horizons and cook more outdoors.
+High Heat Roaster
+700°F max heat for Max Roast and Specialty Roast. Get high-heat char on steaks in under 7 mins, full meals up to 40% faster*, or cook a full roast with crispy outsides and juicy insides. *vs. indoor oven.
+Foolproof BBQ Smoker
+With the touch of a button, smoke low and slow tenderized BBQ foods with authentic smoky flavor. Cook 2 racks of ribs, an 8-lb chicken or 9-lb pork shoulder.
+Efficient Outdoor Cooking
+Electric heat makes your job easier. Just sit back and enjoy your cookout. When you’re done, you can store outdoors as it’s built to be weather-resistant. We recommend using our Ninja Woodfire Outdoor Oven Cover for best results, especially in severe weather conditions, to keep your oven safe from the elements.
+What's Included
+Includes Ninja Woodfire Outdoor Oven, Pro-Heat Pan, Pizza Stone, Roast Rack, Accessory Frame, Pellet Scoop, All-Purpose Blend Starter Pack.
+What's Included
+Ninja Woodfire 8-in-1 Outdoor Oven
+Pro-Heat Pan
+Pizza Stone
+Roast Rack
+Accessory Frame
+Pellet Scoop
+Quick Start Guide
+All-Purpose Blend Starter Pack</t>
+  </si>
+  <si>
+    <t>Key Specs
+Care And Cleaning Instructions
+Dishwasher-safe parts
+General
+Product Name
+Woodfire Pizza Oven, 8-in-1 Outdoor Oven, 5 Pizza Settings, 700°F, Smoker, Woodfire Technology, Electric
+Brand
+Ninja
+Model Number
+OO101
+Color
+Terracotta Red
+Color Category
+Red
+Dimension
+Product Height
+15.1 inches
+Product Width
+18 inches
+Product Depth
+21.5 inches
+Product Weight
+32.4 pounds
+Material
+Care And Cleaning Instructions
+Dishwasher-safe parts
+Non-Stick Interior
+No
+Chemical Disclosures
+This product contains aluminum, stainless steel ingredients (chromium, manganese, nickel, phosphorous) and perfluoroalkyl and polyfluoroalkyl substances (PFAS). For more information about chemicals in this product, visit https://res.cloudinary.com/sharkninja-na/image/upload/v1692814015/NinjaUS/PFAS_Data_list_082323.pdf Este producto contiene aluminio, ingredientes de acero inoxidable (cromo, manganeso, níquel, fósforo) y sustancias perfluoroalquilos y polifluoroalquilos (PFAS). Para obtener más información sobre los productos químicos de este producto, visite https://res.cloudinary.com/sharkninja-na/image/upload/v1692814015/NinjaUS/PFAS_Data_list_082323.pdf
+Features
+Control Type
+Dial, Button
+Fits a 12 inch Pizza
+Yes
+Integrated Timer
+Yes
+Cool-Touch Exterior
+No
+Included
+Number of Heating Elements
+8
+Performance
+Maximum Temperature
+700 degrees fahrenheit
+Minimum Temperature
+105 degrees fahrenheit
+Power
+Power Source
+Electric
+Voltage
+120 volts
+Wattage
+1760 watts
+Certifications Listings &amp; Approvals
+Product Safety Certifications and Standards
+UL Listed
+Warranty
+Manufacturer's Warranty - Parts
+1 Year
+Manufacturer's Warranty - Labor
+1 Year
+Other
+UPC
+622356604239</t>
+  </si>
+  <si>
+    <t>Insulated
+Ultratherm foam-insulated walls &amp; lid provide superior, extended ice retention performance
+Elevation
+Cool Riser Technology improves cooling performance by elevating cooler body away from hot surfaces
+Durable
+Injected-molded construction provides advanced durability
+Secure
+Durable, marine-grade, rubberized lid T-latches provide a secure closure &amp; lock in the cold
+Keep items dry
+Suspended, removable interior wire food basket keeps designated food items dry
+Secure storage
+Stainless steel locking plate keeps items securely inside (lock not included)
+Ergonomic
+Sturdy swing handle features strategically placed grip for a secure hold
+UV protection
+UV inhibitors protect the cooler from sun damage
+Stays put
+Anti-skid pads on base corners keep the cooler stable &amp; secure on smooth surfaces
+Drainage
+Threaded drain plug gives you the option to hook up to your water hose for easy draining &amp; includes a tethered, easy-grip cap
+Cup holders
+Four self-draining cup holders in the lid keep your drinks secure &amp; within reach
+Bottle opener
+Built-in stainless steel bottle opener helps you quickly &amp; easily enjoy your bottled beverages
+Lid stays open
+Self-stopping hinge détente keeps the lid open
+Measure your catch
+Molded-in fish ruler on lid lets you measure your catch instantly
+Size
+Put the size into perspective: Holds 35 cans
+What's Included
+24qt Cooler</t>
+  </si>
+  <si>
+    <t>Key Specs
+Hard/Soft Case
+Hardside
+Capacity
+24 quarts
+Product Type
+Hardside Cooler
+BPA-Free
+Yes
+General
+Product Name
+IMX 24 Quart Cooler
+Brand
+Igloo
+Model Number
+00050367
+Color
+Gray
+Color Category
+Gray
+Dimension
+Product Width
+24.41 inches
+Product Height
+16.14 inches
+Product Depth
+16.14 inches
+Product Weight
+16.01 pounds
+Interior Depth
+10 inches
+Interior Height
+9.7 inches
+Interior Width
+15.36 inches
+Material
+Hard/Soft Case
+Hardside
+Material
+Plastic
+Warranty
+Manufacturer's Warranty - Parts
+1 year
+Manufacturer's Warranty - Labor
+None
+Other
+Can Capacity
+35
+Maximum Days of Ice Retention
+4
+Insulated
+Yes
+Carry Handle(s)
+Yes
+Pour Spout
+Yes
+Function(s)
+Cooling
+Rolling
+No
+UPC
+034223503673</t>
+  </si>
+  <si>
+    <t>The best cleaning performance of any upright de-tangling vacuum.¹
+Engineered for larger homes with pets
+Removes dirt, allergens and pet hair around your home. Easily tackles big messes. With two additional specialized pet tools.
+De-tangling technology
+Automatically clears wrapped hair from the brush bar as you clean.
+Specialized pet tools
+Groom tool for medium and long-haired pets.² Tangle-free turbine tool removes pet hair from upholstery and cars.
+Ball technology
+Navigate around obstacles with a simple turn of the wrist. For easy, precise maneuvering around your home.
+3 cleaning mode
+Select the right cleaning mode for the right task. Optimized for a variety of floor types, for complete control over your clean.
+5 Dyson-Engineered accessories
+Tangle-free turbine tool, groom tool, tool holder, stair tool, combination tool
+Advanced, whole-machine filtration
+Whole-machine filtration ensures that allergens are trapped inside the machine, not expelled back into the home.
+Pioneering Radial Root Cyclone technology
+Increases suction and helps remove dirt and allergens from your home.
+5-year warranty and lifetime Dyson customer support
+¹Four-carpet Geomean per ASTM F608-18. Tested against corded vacuums marketed with de-tangling cleaner heads from Jan 2021 to Dec 2021.
+²Suitable for medium and long hair types only. Read instructions before use.
+What's Included
+Dyson Ball Animal 3 Extra Upright Vacuum
+Combination tool, Stair tool, Tangle-free turbine tool, groom tool, Tool holder
+Owner's Manual</t>
+  </si>
+  <si>
+    <t>Key Specs
+Pet
+Yes
+Cleaning Path Width
+11.02 inches
+Vacuum Type
+Upright vacuums
+Bin Capacity
+0.55 gallons
+Product Weight
+17.33 pounds
+Brush Roll Shut-Off
+Yes
+Bagless
+Yes
+Compatible Floor Type
+All floors
+Amperage
+11.67 amperes
+Corded/Cordless
+Corded
+Carpet Height Adjustments
+Yes
+Wattage
+1400 watts
+Wet And Dry Usage
+No
+Cord Length
+35 feet
+Filter Type
+Lifetime
+Hypoallergenic
+Yes
+Multi Surface
+Yes
+Washable Filter
+Yes
+Attachments Included
+Combination tool, Stair tool, Tangle-free turbine tool, groom tool, Tool holder
+General
+Product Name
+Ball Animal 3 Extra Upright Vacuum with 5 accessories
+Brand
+Dyson
+Model Number
+394515-01
+Color
+Copper/Silver
+Color Category
+Silver
+Dimension
+Product Height
+42.17 inches
+Product Length
+15.51 inches
+Product Width
+11.02 inches
+Feature
+Retractable Cord
+No
+Cord Storage Type
+Cord wrap
+Bagless
+Yes
+Amperage
+11.67 amperes
+Wattage
+1400 watts
+Wet And Dry Usage
+No
+Filter Type
+Lifetime
+Headlight(s)
+No
+Voltage
+120 volts
+Performance
+Adjustable Suction
+Yes
+Certifications Listings &amp; Approvals
+Product Safety Certifications and Standards
+ETL Listed, UL Listed
+Warranty
+Manufacturer's Warranty - Parts
+5 years
+Manufacturer's Warranty - Labor
+5 years
+Other
+UPC
+885609027074</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +2793,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1609,14 +3119,14 @@
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1640,7 +3150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1650,7 +3160,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1662,7 +3172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1674,7 +3184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1686,7 +3196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1698,7 +3208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1710,7 +3220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1722,7 +3232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1734,7 +3244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1746,7 +3256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1756,7 +3266,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1768,7 +3278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1780,7 +3290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1794,7 +3304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1806,7 +3316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1818,7 +3328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1830,7 +3340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1842,7 +3352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1852,7 +3362,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1862,7 +3372,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
@@ -1870,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,31 +3388,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="D45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="D46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="D47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="D48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +3420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
@@ -1918,19 +3428,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="D51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="D52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>40</v>
       </c>
@@ -1938,7 +3448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
@@ -1946,25 +3456,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="D59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>43</v>
       </c>
@@ -1972,19 +3482,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="D61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="D62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>45</v>
       </c>
@@ -1992,7 +3502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>47</v>
       </c>
@@ -2000,12 +3510,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>49</v>
       </c>
@@ -2013,7 +3523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,7 +3531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>52</v>
       </c>
@@ -2041,26 +3551,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8FFCC8-FB4D-413C-81EB-800110419A65}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="1" customWidth="1"/>
-    <col min="7" max="8" width="66.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7265625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="66.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -2092,7 +3602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2109,7 +3619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
@@ -2120,7 +3630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>64</v>
       </c>
@@ -2131,7 +3641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
@@ -2142,7 +3652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2153,7 +3663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
@@ -2164,7 +3674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
@@ -2175,7 +3685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
@@ -2186,7 +3696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
@@ -2197,7 +3707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>64</v>
       </c>
@@ -2208,7 +3718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>64</v>
       </c>
@@ -2219,7 +3729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
@@ -2230,7 +3740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
@@ -2241,7 +3751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
@@ -2252,7 +3762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
@@ -2260,7 +3770,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
@@ -2268,7 +3778,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
@@ -2276,7 +3786,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
@@ -2284,7 +3794,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
@@ -2292,7 +3802,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
@@ -2300,47 +3810,47 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -2357,13 +3867,13 @@
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I30" s="1">
         <v>4.2</v>
@@ -2375,7 +3885,7 @@
         <v>664.71</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -2392,13 +3902,13 @@
         <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="I31" s="1">
         <v>4.2</v>
@@ -2410,7 +3920,7 @@
         <v>619.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="406" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -2427,13 +3937,13 @@
         <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="I32" s="1">
         <v>4.0999999999999996</v>
@@ -2445,7 +3955,7 @@
         <v>49.89</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -2462,13 +3972,13 @@
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="I33" s="1">
         <v>4.8</v>
@@ -2480,7 +3990,7 @@
         <v>89.95</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -2497,13 +4007,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="I34" s="1">
         <v>4.4000000000000004</v>
@@ -2515,7 +4025,7 @@
         <v>99.99</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -2532,13 +4042,13 @@
         <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="I35" s="1">
         <v>3.4</v>
@@ -2550,7 +4060,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -2567,13 +4077,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I36" s="1">
         <v>4.3</v>
@@ -2585,7 +4095,7 @@
         <v>49.98</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -2602,13 +4112,13 @@
         <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="I37" s="1">
         <v>4.5999999999999996</v>
@@ -2620,7 +4130,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -2637,13 +4147,13 @@
         <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="I38" s="1">
         <v>4.5999999999999996</v>
@@ -2655,7 +4165,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -2672,13 +4182,13 @@
         <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="I39" s="1">
         <v>4.2</v>
@@ -2690,7 +4200,7 @@
         <v>139.99</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="116" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>11</v>
       </c>
@@ -2707,13 +4217,13 @@
         <v>20</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="I40" s="1">
         <v>4.8</v>
@@ -2725,7 +4235,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -2742,10 +4252,10 @@
         <v>21</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>13</v>
       </c>
@@ -2762,13 +4272,13 @@
         <v>23</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="I42" s="1">
         <v>4.8</v>
@@ -2780,7 +4290,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>14</v>
       </c>
@@ -2797,13 +4307,13 @@
         <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="I43" s="1">
         <v>4.5999999999999996</v>
@@ -2815,7 +4325,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>15</v>
       </c>
@@ -2826,19 +4336,19 @@
         <v>77</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="I44" s="1">
         <v>4.7</v>
@@ -2850,7 +4360,7 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>16</v>
       </c>
@@ -2861,19 +4371,19 @@
         <v>77</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>143</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="I45" s="1">
         <v>4.5999999999999996</v>
@@ -2885,7 +4395,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>17</v>
       </c>
@@ -2896,19 +4406,19 @@
         <v>77</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="I46" s="1">
         <v>4.9000000000000004</v>
@@ -2920,7 +4430,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>18</v>
       </c>
@@ -2931,19 +4441,19 @@
         <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="I47" s="1">
         <v>4.5999999999999996</v>
@@ -2955,7 +4465,7 @@
         <v>349.99</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>19</v>
       </c>
@@ -2966,19 +4476,19 @@
         <v>77</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="I48" s="1">
         <v>4.4000000000000004</v>
@@ -2990,7 +4500,7 @@
         <v>94.99</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="377" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>20</v>
       </c>
@@ -3001,7 +4511,7 @@
         <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>147</v>
@@ -3010,10 +4520,10 @@
         <v>147</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="I49" s="1">
         <v>4.4000000000000004</v>
@@ -3025,7 +4535,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>21</v>
       </c>
@@ -3036,7 +4546,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>22</v>
       </c>
@@ -3047,7 +4557,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>23</v>
       </c>
@@ -3058,7 +4568,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>24</v>
       </c>
@@ -3069,7 +4579,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>25</v>
       </c>
@@ -3080,7 +4590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>26</v>
       </c>
@@ -3091,7 +4601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>27</v>
       </c>
@@ -3111,10 +4621,10 @@
         <v>119</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="I56" s="1">
         <v>4.4000000000000004</v>
@@ -3126,7 +4636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>28</v>
       </c>
@@ -3146,10 +4656,10 @@
         <v>122</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I57" s="1">
         <v>4.2</v>
@@ -3161,7 +4671,7 @@
         <v>13.48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="375" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>29</v>
       </c>
@@ -3175,16 +4685,16 @@
         <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>125</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="I58" s="1">
         <v>4.5</v>
@@ -3196,7 +4706,7 @@
         <v>99.98</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="232" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>30</v>
       </c>
@@ -3216,10 +4726,10 @@
         <v>128</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="I59" s="1">
         <v>4</v>
@@ -3231,43 +4741,46 @@
         <v>359.99</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="3:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="I65" s="1">
         <v>4.9000000000000004</v>
@@ -3279,18 +4792,21 @@
         <v>729.99</v>
       </c>
     </row>
-    <row r="66" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="I66" s="1">
         <v>4.5999999999999996</v>
@@ -3302,18 +4818,21 @@
         <v>1199.99</v>
       </c>
     </row>
-    <row r="67" spans="3:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="I67" s="1">
         <v>4.0999999999999996</v>
@@ -3325,7 +4844,7 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>129</v>
       </c>
@@ -3335,8 +4854,11 @@
       <c r="F68" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="G68" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="H68" s="1" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="I68" s="1">
         <v>4.8</v>
@@ -3348,18 +4870,21 @@
         <v>89.99</v>
       </c>
     </row>
-    <row r="69" spans="3:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="I69" s="1">
         <v>4.5</v>
@@ -3371,19 +4896,22 @@
         <v>99.99</v>
       </c>
     </row>
-    <row r="70" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="I70" s="1">
         <v>4.5999999999999996</v>
@@ -3395,19 +4923,22 @@
         <v>69.989999999999995</v>
       </c>
     </row>
-    <row r="71" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="I71" s="1">
         <v>4.5</v>
@@ -3419,19 +4950,22 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="72" spans="3:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="I72" s="1">
         <v>4.4000000000000004</v>
@@ -3443,16 +4977,22 @@
         <v>339.99</v>
       </c>
     </row>
-    <row r="73" spans="3:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="I73" s="1">
         <v>4.8</v>
@@ -3464,19 +5004,22 @@
         <v>1599.99</v>
       </c>
     </row>
-    <row r="74" spans="3:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="I74" s="1">
         <v>4</v>
@@ -3488,7 +5031,7 @@
         <v>139.99</v>
       </c>
     </row>
-    <row r="75" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>129</v>
       </c>
@@ -3496,10 +5039,13 @@
         <v>154</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="I75" s="1">
         <v>4.8</v>
@@ -3511,7 +5057,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="76" spans="3:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
         <v>129</v>
       </c>
@@ -3519,10 +5065,13 @@
         <v>155</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="I76" s="1">
         <v>4.7</v>
@@ -3534,53 +5083,59 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="77" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="I77" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="J77" s="1">
-        <v>32562</v>
+        <v>106</v>
       </c>
       <c r="K77" s="1">
-        <v>39.99</v>
-      </c>
-    </row>
-    <row r="78" spans="3:11" ht="87" x14ac:dyDescent="0.35">
+        <v>349.99</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="I78" s="1">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J78" s="1">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="K78" s="1">
-        <v>349.99</v>
-      </c>
-    </row>
-    <row r="79" spans="3:11" ht="58" x14ac:dyDescent="0.35">
+        <v>94.99</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>129</v>
       </c>
@@ -3588,43 +5143,26 @@
         <v>157</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="I79" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="J79" s="1">
-        <v>41</v>
+        <v>777</v>
       </c>
       <c r="K79" s="1">
-        <v>94.99</v>
-      </c>
-    </row>
-    <row r="80" spans="3:11" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="C80" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I80" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J80" s="1">
-        <v>777</v>
-      </c>
-      <c r="K80" s="1">
         <v>399.99</v>
       </c>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3642,31 +5180,20 @@
     <hyperlink ref="D4" r:id="rId12" xr:uid="{D38CDF7D-9FE1-49F1-A1F8-28032F04F6AB}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{530D22AE-701B-4A32-9512-660098BBDF57}"/>
     <hyperlink ref="D10" r:id="rId14" xr:uid="{A8923910-483F-46D2-8ED9-C10E6AF959E8}"/>
-    <hyperlink ref="D78" r:id="rId15" xr:uid="{DB2F31ED-A20B-4C8C-8687-199BB200EF6C}"/>
-    <hyperlink ref="D75" r:id="rId16" xr:uid="{7D001425-952B-4273-9E9A-FCE3CB5FFF9A}"/>
-    <hyperlink ref="D76" r:id="rId17" xr:uid="{156ECCF7-0BD4-43A9-B176-59C6D564886B}"/>
-    <hyperlink ref="D77" r:id="rId18" xr:uid="{918848D8-7BE5-4018-8C55-CEC7002CA9F2}"/>
-    <hyperlink ref="D79" r:id="rId19" xr:uid="{8E1E973E-3ACA-4E7C-AD67-B499DA21FEA1}"/>
-    <hyperlink ref="D80" r:id="rId20" xr:uid="{4FD46094-DAB9-4CD6-A190-C0C6227810FC}"/>
-    <hyperlink ref="D69" r:id="rId21" xr:uid="{7716567D-D933-48C2-9224-35CA8B300709}"/>
-    <hyperlink ref="D68" r:id="rId22" xr:uid="{6E2FCDC0-D3E2-4E28-9D42-F1F93D03797C}"/>
-    <hyperlink ref="D67" r:id="rId23" xr:uid="{417AACA0-6100-426E-85C1-0AF8CC02E529}"/>
-    <hyperlink ref="D66" r:id="rId24" xr:uid="{DAC37E6D-5373-4CEA-BF1C-8C46D88AC0DF}"/>
-    <hyperlink ref="D65" r:id="rId25" xr:uid="{1FD7B0EC-16E0-4C60-AE94-7B4720546328}"/>
-    <hyperlink ref="D30" r:id="rId26" xr:uid="{A75B96D2-F71B-42A6-87D0-363BA6BAFBD9}"/>
-    <hyperlink ref="D35" r:id="rId27" xr:uid="{3D992E38-9A03-4F7D-AA92-E41A6651AC00}"/>
-    <hyperlink ref="D36" r:id="rId28" xr:uid="{834ED2DB-970C-48B6-9EFE-1A252515B6BB}"/>
-    <hyperlink ref="D37" r:id="rId29" xr:uid="{2C4D47A3-7193-44BA-A21E-EAED5940DF85}"/>
-    <hyperlink ref="D38" r:id="rId30" xr:uid="{DE78018A-E9A9-450A-BD0F-9A6470DBC4EC}"/>
-    <hyperlink ref="D39" r:id="rId31" xr:uid="{DED299E5-1F17-4BCE-A24B-3FC1E6C9521F}"/>
-    <hyperlink ref="D40" r:id="rId32" xr:uid="{8CAF0902-B308-4A95-86E8-8CBF4C16620A}"/>
-    <hyperlink ref="D41" r:id="rId33" xr:uid="{E4E1B484-946E-44B0-90BD-761798C9300B}"/>
-    <hyperlink ref="D42" r:id="rId34" xr:uid="{E87D0DF3-770B-4C30-8C47-5ABA6D448AAD}"/>
-    <hyperlink ref="D43" r:id="rId35" xr:uid="{C01CBC0F-8664-4EBD-A7B6-7AF4EFD4C0EB}"/>
-    <hyperlink ref="D44" r:id="rId36" xr:uid="{4D9B0924-88D7-4380-AB8C-8AD72CC3BFA3}"/>
-    <hyperlink ref="D45" r:id="rId37" xr:uid="{2BBC497B-150C-44DA-89F6-23DCA175AEBE}"/>
-    <hyperlink ref="D46" r:id="rId38" xr:uid="{3385D83A-585B-41CE-94AB-81E89CE78CD0}"/>
-    <hyperlink ref="D56" r:id="rId39" xr:uid="{FBBFB39F-8CF7-469F-A66B-E965EF7CAC20}"/>
+    <hyperlink ref="D30" r:id="rId15" xr:uid="{A75B96D2-F71B-42A6-87D0-363BA6BAFBD9}"/>
+    <hyperlink ref="D35" r:id="rId16" xr:uid="{3D992E38-9A03-4F7D-AA92-E41A6651AC00}"/>
+    <hyperlink ref="D36" r:id="rId17" xr:uid="{834ED2DB-970C-48B6-9EFE-1A252515B6BB}"/>
+    <hyperlink ref="D37" r:id="rId18" xr:uid="{2C4D47A3-7193-44BA-A21E-EAED5940DF85}"/>
+    <hyperlink ref="D38" r:id="rId19" xr:uid="{DE78018A-E9A9-450A-BD0F-9A6470DBC4EC}"/>
+    <hyperlink ref="D39" r:id="rId20" xr:uid="{DED299E5-1F17-4BCE-A24B-3FC1E6C9521F}"/>
+    <hyperlink ref="D40" r:id="rId21" xr:uid="{8CAF0902-B308-4A95-86E8-8CBF4C16620A}"/>
+    <hyperlink ref="D41" r:id="rId22" xr:uid="{E4E1B484-946E-44B0-90BD-761798C9300B}"/>
+    <hyperlink ref="D42" r:id="rId23" xr:uid="{E87D0DF3-770B-4C30-8C47-5ABA6D448AAD}"/>
+    <hyperlink ref="D43" r:id="rId24" xr:uid="{C01CBC0F-8664-4EBD-A7B6-7AF4EFD4C0EB}"/>
+    <hyperlink ref="D44" r:id="rId25" xr:uid="{4D9B0924-88D7-4380-AB8C-8AD72CC3BFA3}"/>
+    <hyperlink ref="D45" r:id="rId26" xr:uid="{2BBC497B-150C-44DA-89F6-23DCA175AEBE}"/>
+    <hyperlink ref="D46" r:id="rId27" xr:uid="{3385D83A-585B-41CE-94AB-81E89CE78CD0}"/>
+    <hyperlink ref="D56" r:id="rId28" xr:uid="{FBBFB39F-8CF7-469F-A66B-E965EF7CAC20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3681,19 +5208,19 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
